--- a/corpus/corpus_v3_3.xlsx
+++ b/corpus/corpus_v3_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L683"/>
+  <dimension ref="A1:M683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>language</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>synonyms</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -546,6 +551,11 @@
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>(STARS,(STARDIT),(star,luteinizing hormone-induced protein,(STAR),(STARS),(STARD,steroidogenic acute regulatory protein,mitochondrial,start domain-containing protein 1,stard1,(STARMAPs,star,(START),STAR</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -598,6 +608,11 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(STARS,(STARDIT),(star,luteinizing hormone-induced protein,(STAR),(STARS),(STARD,steroidogenic acute regulatory protein,mitochondrial,start domain-containing protein 1,stard1,(STARMAPs,star,(START),STAR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +665,11 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ABBYY OCR</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -702,6 +722,11 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ABBYY OCR</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -754,6 +779,11 @@
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ABBYY OCR</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -806,6 +836,11 @@
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ABBYY OCR</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -858,6 +893,11 @@
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ABBYY OCR</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -914,6 +954,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>R-package BCEA,R package BCEA,R package BCEA (Bayesian Cost Effectiveness Analysis),BCE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -970,6 +1015,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1026,6 +1076,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1078,6 +1133,11 @@
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1130,6 +1190,11 @@
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1186,6 +1251,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1238,6 +1308,11 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1290,6 +1365,11 @@
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1346,6 +1426,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1402,6 +1487,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1454,6 +1544,11 @@
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,BeautifulSoup Python library,Beautiful,BeautifulSoup Python Package,Beautiful soup,Beautiful Soup,BeatifulSoup,BeautifulSoup4,beautifulsoup4,BeautifulSoup9,BeautifulSoup 4 (PyPi)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1506,6 +1601,11 @@
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CoAPthon3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1558,6 +1658,11 @@
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CoAPthon3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1614,6 +1719,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Diagram,DiagrammeR,Diagrammer</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1670,6 +1780,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1726,6 +1841,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1782,6 +1902,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1838,6 +1963,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1894,6 +2024,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1950,6 +2085,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2006,6 +2146,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2058,6 +2203,11 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2114,6 +2264,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2170,6 +2325,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Django Python Web framework,Djangology,Django CMS,Django Python,django,DJANGOS,Django web,Django-rest,django-open,django-auth,Django Web</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2222,6 +2382,11 @@
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inCal</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2278,6 +2443,11 @@
           <t>JavaScript</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2334,6 +2504,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2390,6 +2565,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2446,6 +2626,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2502,6 +2687,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2554,6 +2744,11 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2610,6 +2805,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2666,6 +2866,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2718,6 +2923,11 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2770,6 +2980,11 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Flask Python library,FLASKA,Python Flask,Flask MVC,Flask Python,Flask Python Framework,FLAS,Flask Web</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2826,6 +3041,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>R package “GillespieSSA,Gillespie,R package ‘GillespieSSA’,R-package GillespieSSA,GillespieSSA R,Gillespie2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2882,6 +3102,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>R package “GillespieSSA,Gillespie,R package ‘GillespieSSA’,R-package GillespieSSA,GillespieSSA R,Gillespie2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2938,6 +3163,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>R package “GillespieSSA,Gillespie,R package ‘GillespieSSA’,R-package GillespieSSA,GillespieSSA R,Gillespie2</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2990,6 +3220,11 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>R package “GillespieSSA,Gillespie,R package ‘GillespieSSA’,R-package GillespieSSA,GillespieSSA R,Gillespie2</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3046,6 +3281,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>R package “GillespieSSA,Gillespie,R package ‘GillespieSSA’,R-package GillespieSSA,GillespieSSA R,Gillespie2</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3102,6 +3342,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3158,6 +3399,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3210,6 +3452,11 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>MG-RAST53,MG-RAST BLAT,MG-RAST SEED,metagenomics rast,MG RAST,MG-RAST API,mg-rast - metagenomics analysis server,MG-RAST18,MG-RAST43,MG-Rast M5NR,MG-RASTv2,the metagenomics rast server,MG-RAST),MG-RAST23,MG-RASR,Metagenomics RAST,MG-RAST46,MG-RAST12,MG-Rast),The Metagenomics RAST server,MG-RASTv,MG-RAST - metagenomics analysis server,MG-RASTare,MG-RAST-API,MG-RASTa,mg-rast</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3262,6 +3509,11 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>MG-RAST53,MG-RAST BLAT,MG-RAST SEED,metagenomics rast,MG RAST,MG-RAST API,mg-rast - metagenomics analysis server,MG-RAST18,MG-RAST43,MG-Rast M5NR,MG-RASTv2,the metagenomics rast server,MG-RAST),MG-RAST23,MG-RASR,Metagenomics RAST,MG-RAST46,MG-RAST12,MG-Rast),The Metagenomics RAST server,MG-RASTv,MG-RAST - metagenomics analysis server,MG-RASTare,MG-RAST-API,MG-RASTa,mg-rast</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3314,6 +3566,11 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>MG-RAST53,MG-RAST BLAT,MG-RAST SEED,metagenomics rast,MG RAST,MG-RAST API,mg-rast - metagenomics analysis server,MG-RAST18,MG-RAST43,MG-Rast M5NR,MG-RASTv2,the metagenomics rast server,MG-RAST),MG-RAST23,MG-RASR,Metagenomics RAST,MG-RAST46,MG-RAST12,MG-Rast),The Metagenomics RAST server,MG-RASTv,MG-RAST - metagenomics analysis server,MG-RASTare,MG-RAST-API,MG-RASTa,mg-rast</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3366,6 +3623,11 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>MG-RAST53,MG-RAST BLAT,MG-RAST SEED,metagenomics rast,MG RAST,MG-RAST API,mg-rast - metagenomics analysis server,MG-RAST18,MG-RAST43,MG-Rast M5NR,MG-RASTv2,the metagenomics rast server,MG-RAST),MG-RAST23,MG-RASR,Metagenomics RAST,MG-RAST46,MG-RAST12,MG-Rast),The Metagenomics RAST server,MG-RASTv,MG-RAST - metagenomics analysis server,MG-RASTare,MG-RAST-API,MG-RASTa,mg-rast</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3418,6 +3680,11 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>MG-RAST53,MG-RAST BLAT,MG-RAST SEED,metagenomics rast,MG RAST,MG-RAST API,mg-rast - metagenomics analysis server,MG-RAST18,MG-RAST43,MG-Rast M5NR,MG-RASTv2,the metagenomics rast server,MG-RAST),MG-RAST23,MG-RASR,Metagenomics RAST,MG-RAST46,MG-RAST12,MG-Rast),The Metagenomics RAST server,MG-RASTv,MG-RAST - metagenomics analysis server,MG-RASTare,MG-RAST-API,MG-RASTa,mg-rast</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3470,6 +3737,11 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>MGDrivE2,GDrive,MGDrivE,MGDrive</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3522,6 +3794,11 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>MGDrivE2,GDrive,MGDrivE,MGDrive</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3574,6 +3851,11 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>MGDrivE2,GDrive,MGDrivE,MGDrive</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3626,6 +3908,11 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>MGDrivE2,GDrive,MGDrivE,MGDrive</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3678,6 +3965,11 @@
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>MGDrivE2,GDrive,MGDrivE,MGDrive</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3730,6 +4022,11 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>R package MultiPhen (MultiPhen),MultiPhen-GATES,MultiPhen,MultiPhen9,MultiPhen R package,Multiphyl,Multiphen,R package MultiPhen,Multi,MultiPhen59,MultiPhyl,MultiP,Multiphor</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3782,6 +4079,11 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>R package MultiPhen (MultiPhen),MultiPhen-GATES,MultiPhen,MultiPhen9,MultiPhen R package,Multiphyl,Multiphen,R package MultiPhen,Multi,MultiPhen59,MultiPhyl,MultiP,Multiphor</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3834,6 +4136,11 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>R package MultiPhen (MultiPhen),MultiPhen-GATES,MultiPhen,MultiPhen9,MultiPhen R package,Multiphyl,Multiphen,R package MultiPhen,Multi,MultiPhen59,MultiPhyl,MultiP,Multiphor</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3886,6 +4193,11 @@
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>R package MultiPhen (MultiPhen),MultiPhen-GATES,MultiPhen,MultiPhen9,MultiPhen R package,Multiphyl,Multiphen,R package MultiPhen,Multi,MultiPhen59,MultiPhyl,MultiP,Multiphor</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3938,6 +4250,11 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>R package MultiPhen (MultiPhen),MultiPhen-GATES,MultiPhen,MultiPhen9,MultiPhen R package,Multiphyl,Multiphen,R package MultiPhen,Multi,MultiPhen59,MultiPhyl,MultiP,Multiphor</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3990,6 +4307,11 @@
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>nlme19,R-package ‘nlme’,R-package “nlme”,R package: nlme,NLMEs,NLMEM,R packge nlme,R package ‘nlme,nlme R-package,R-package nlme,nlme R Package,nlme package of R,NLMETM,nlme92,R library “nlme,nlme60,nlm,R nlme,R nlme package,R package 'nlme',nlme_3,NLM,R package "nlme",nlme-3,nlme59,nlme package for,NLME R,NLME-A,R package “nlme,R Package nlme,R language nlme package,R package nlme package,R library “nlme”,nlme R package,nlme package for R,on package nlme,R « nlme » package (Linear and Nonlinear Mixed Effects Models),nlme” R,nlme4,nlme’ R,R-package “nlme,nlme55,nlme51,package nlme,nlme R,nlme package,R package “nlme”,R package 'nlme,nlme package (Pinheiro ),R ‘nlme’,“nlme,R packages nlme,nlme18,≪nlme≫ R,r package nlme,nlme42,nlme R library,nlme” R package,R nlme library,nlme’,nlme-R,r-package nlme,nlme82,pNLME,R-package ‘nlme,nlme),R package nlme,R package ‘nlme’,R function nlme,R library nlme,nlme of R,nlme library of R,package “nlme</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4042,6 +4364,11 @@
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>nlme19,R-package ‘nlme’,R-package “nlme”,R package: nlme,NLMEs,NLMEM,R packge nlme,R package ‘nlme,nlme R-package,R-package nlme,nlme R Package,nlme package of R,NLMETM,nlme92,R library “nlme,nlme60,nlm,R nlme,R nlme package,R package 'nlme',nlme_3,NLM,R package "nlme",nlme-3,nlme59,nlme package for,NLME R,NLME-A,R package “nlme,R Package nlme,R language nlme package,R package nlme package,R library “nlme”,nlme R package,nlme package for R,on package nlme,R « nlme » package (Linear and Nonlinear Mixed Effects Models),nlme” R,nlme4,nlme’ R,R-package “nlme,nlme55,nlme51,package nlme,nlme R,nlme package,R package “nlme”,R package 'nlme,nlme package (Pinheiro ),R ‘nlme’,“nlme,R packages nlme,nlme18,≪nlme≫ R,r package nlme,nlme42,nlme R library,nlme” R package,R nlme library,nlme’,nlme-R,r-package nlme,nlme82,pNLME,R-package ‘nlme,nlme),R package nlme,R package ‘nlme’,R function nlme,R library nlme,nlme of R,nlme library of R,package “nlme</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4094,6 +4421,11 @@
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>nlme19,R-package ‘nlme’,R-package “nlme”,R package: nlme,NLMEs,NLMEM,R packge nlme,R package ‘nlme,nlme R-package,R-package nlme,nlme R Package,nlme package of R,NLMETM,nlme92,R library “nlme,nlme60,nlm,R nlme,R nlme package,R package 'nlme',nlme_3,NLM,R package "nlme",nlme-3,nlme59,nlme package for,NLME R,NLME-A,R package “nlme,R Package nlme,R language nlme package,R package nlme package,R library “nlme”,nlme R package,nlme package for R,on package nlme,R « nlme » package (Linear and Nonlinear Mixed Effects Models),nlme” R,nlme4,nlme’ R,R-package “nlme,nlme55,nlme51,package nlme,nlme R,nlme package,R package “nlme”,R package 'nlme,nlme package (Pinheiro ),R ‘nlme’,“nlme,R packages nlme,nlme18,≪nlme≫ R,r package nlme,nlme42,nlme R library,nlme” R package,R nlme library,nlme’,nlme-R,r-package nlme,nlme82,pNLME,R-package ‘nlme,nlme),R package nlme,R package ‘nlme’,R function nlme,R library nlme,nlme of R,nlme library of R,package “nlme</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4146,6 +4478,11 @@
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>nlme19,R-package ‘nlme’,R-package “nlme”,R package: nlme,NLMEs,NLMEM,R packge nlme,R package ‘nlme,nlme R-package,R-package nlme,nlme R Package,nlme package of R,NLMETM,nlme92,R library “nlme,nlme60,nlm,R nlme,R nlme package,R package 'nlme',nlme_3,NLM,R package "nlme",nlme-3,nlme59,nlme package for,NLME R,NLME-A,R package “nlme,R Package nlme,R language nlme package,R package nlme package,R library “nlme”,nlme R package,nlme package for R,on package nlme,R « nlme » package (Linear and Nonlinear Mixed Effects Models),nlme” R,nlme4,nlme’ R,R-package “nlme,nlme55,nlme51,package nlme,nlme R,nlme package,R package “nlme”,R package 'nlme,nlme package (Pinheiro ),R ‘nlme’,“nlme,R packages nlme,nlme18,≪nlme≫ R,r package nlme,nlme42,nlme R library,nlme” R package,R nlme library,nlme’,nlme-R,r-package nlme,nlme82,pNLME,R-package ‘nlme,nlme),R package nlme,R package ‘nlme’,R function nlme,R library nlme,nlme of R,nlme library of R,package “nlme</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4198,6 +4535,11 @@
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>nlme19,R-package ‘nlme’,R-package “nlme”,R package: nlme,NLMEs,NLMEM,R packge nlme,R package ‘nlme,nlme R-package,R-package nlme,nlme R Package,nlme package of R,NLMETM,nlme92,R library “nlme,nlme60,nlm,R nlme,R nlme package,R package 'nlme',nlme_3,NLM,R package "nlme",nlme-3,nlme59,nlme package for,NLME R,NLME-A,R package “nlme,R Package nlme,R language nlme package,R package nlme package,R library “nlme”,nlme R package,nlme package for R,on package nlme,R « nlme » package (Linear and Nonlinear Mixed Effects Models),nlme” R,nlme4,nlme’ R,R-package “nlme,nlme55,nlme51,package nlme,nlme R,nlme package,R package “nlme”,R package 'nlme,nlme package (Pinheiro ),R ‘nlme’,“nlme,R packages nlme,nlme18,≪nlme≫ R,r package nlme,nlme42,nlme R library,nlme” R package,R nlme library,nlme’,nlme-R,r-package nlme,nlme82,pNLME,R-package ‘nlme,nlme),R package nlme,R package ‘nlme’,R function nlme,R library nlme,nlme of R,nlme library of R,package “nlme</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4250,6 +4592,11 @@
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4302,6 +4649,11 @@
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4354,6 +4706,11 @@
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4406,6 +4763,11 @@
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4458,6 +4820,11 @@
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4514,6 +4881,11 @@
           <t>MATLAB</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4566,6 +4938,11 @@
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>PANDA (Pipeline for Analyzing Brain Diffusion Images toolkit),PANDA (Pipeline for Analyzing Brain Diffusion Images),Pipeline for Analyzing braiN Diffusion imAges (PANDA,PANDA (Pipeline for Analysing Brain Diffusion Images),Pipeline for Analyzing Brain Diffusion Images,PANDA (Pipeline for Analyzing,PANDA (Pipeline for Analyzing braiN Diffusion imAges)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4618,6 +4995,11 @@
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>POA,POAPRA</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4670,6 +5052,11 @@
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>POA,POAPRA</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4722,6 +5109,11 @@
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>POA,POAPRA</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4774,6 +5166,11 @@
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>POA,POAPRA</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4826,6 +5223,11 @@
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>POA,POAPRA</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4882,6 +5284,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4938,6 +5345,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4994,6 +5406,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5050,6 +5467,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5106,6 +5528,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5162,6 +5589,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5214,6 +5646,11 @@
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>PresenceAbsence R,Presence Absence,R package “Presence/Absence”,R package ‘PresenceAbsence’,Presence,R package 'PresenceAbsence',R package "PresenceAbsence",PresenceAbsence R package,PresenceAbsence62,R package “PresenceAbsence”,PresenceAbsence for R,R package “PresenceAbsence,R package PresenceAbsence</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5266,6 +5703,11 @@
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>PresenceAbsence R,Presence Absence,R package “Presence/Absence”,R package ‘PresenceAbsence’,Presence,R package 'PresenceAbsence',R package "PresenceAbsence",PresenceAbsence R package,PresenceAbsence62,R package “PresenceAbsence”,PresenceAbsence for R,R package “PresenceAbsence,R package PresenceAbsence</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5322,6 +5764,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>PresenceAbsence R,Presence Absence,R package “Presence/Absence”,R package ‘PresenceAbsence’,Presence,R package 'PresenceAbsence',R package "PresenceAbsence",PresenceAbsence R package,PresenceAbsence62,R package “PresenceAbsence”,PresenceAbsence for R,R package “PresenceAbsence,R package PresenceAbsence</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5378,6 +5825,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>PresenceAbsence R,Presence Absence,R package “Presence/Absence”,R package ‘PresenceAbsence’,Presence,R package 'PresenceAbsence',R package "PresenceAbsence",PresenceAbsence R package,PresenceAbsence62,R package “PresenceAbsence”,PresenceAbsence for R,R package “PresenceAbsence,R package PresenceAbsence</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5434,6 +5886,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>PresenceAbsence R,Presence Absence,R package “Presence/Absence”,R package ‘PresenceAbsence’,Presence,R package 'PresenceAbsence',R package "PresenceAbsence",PresenceAbsence R package,PresenceAbsence62,R package “PresenceAbsence”,PresenceAbsence for R,R package “PresenceAbsence,R package PresenceAbsence</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5486,6 +5943,7 @@
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5538,6 +5996,7 @@
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5594,6 +6053,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package “scikit-learn”,Python package Scikit-learn,Python sklearn package,Python package seaborn,Python packages,Python package scikit-learn,Python package scikit‐learn,Python package scikits.learn,Python package scipy,Python package Holes,Python package sci-kit learn,Python package scikit learn</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5650,6 +6114,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package “scikit-learn”,Python package Scikit-learn,Python sklearn package,Python package seaborn,Python packages,Python package scikit-learn,Python package scikit‐learn,Python package scikits.learn,Python package scipy,Python package Holes,Python package sci-kit learn,Python package scikit learn</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5706,6 +6175,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package “scikit-learn”,Python package Scikit-learn,Python sklearn package,Python package seaborn,Python packages,Python package scikit-learn,Python package scikit‐learn,Python package scikits.learn,Python package scipy,Python package Holes,Python package sci-kit learn,Python package scikit learn</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5762,6 +6236,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5818,6 +6297,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5874,6 +6358,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5930,6 +6419,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5986,6 +6480,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6042,6 +6541,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python package sklearn,Python sklearn-library,Python-sklearn,Python Sklearn library,Python sklearn package,Python3 sklearn,Python sklearn library,Python Sklearn,Python sklearn.cluster</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6098,6 +6602,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python sklearn-library,Python ‘sklearn’ library,Python scikit-learn library,Python Sklearn library,Python Scikit-learn library,Python Scikit-Learn library,Python sklearn library,Python3 sklearn library,Python Sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6154,6 +6663,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python sklearn-library,Python ‘sklearn’ library,Python scikit-learn library,Python Sklearn library,Python Scikit-learn library,Python Scikit-Learn library,Python sklearn library,Python3 sklearn library,Python Sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6210,6 +6724,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python sklearn-library,Python ‘sklearn’ library,Python scikit-learn library,Python Sklearn library,Python Scikit-learn library,Python Scikit-Learn library,Python sklearn library,Python3 sklearn library,Python Sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6266,6 +6785,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Python sklearn,Python sklearn-library,Python ‘sklearn’ library,Python scikit-learn library,Python Sklearn library,Python Scikit-learn library,Python Scikit-Learn library,Python sklearn library,Python3 sklearn library,Python Sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6318,6 +6842,11 @@
         </is>
       </c>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>DCluster,WCluster,pCluster,ACluster,MCluster,Cluster®,SCluster,ClusterW,ClusterM,ClusterT,¥Cluster,iCluster,RCluster,FCluster,Clusters,hCluster,kCluster,aCluster,cCluster,1Cluster,Cluster8,xCluster,Cluster3,ClusterA,mCluster,:Cluster,XCluster,Cluste,eCluster,dCluster,UCluster,ClusterR,μCluster,sCluster,5Cluster,Cluster,PCluster,ClusterX</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6370,6 +6899,11 @@
         </is>
       </c>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>DCluster,WCluster,pCluster,ACluster,MCluster,Cluster®,SCluster,ClusterW,ClusterM,ClusterT,¥Cluster,iCluster,RCluster,FCluster,Clusters,hCluster,kCluster,aCluster,cCluster,1Cluster,Cluster8,xCluster,Cluster3,ClusterA,mCluster,:Cluster,XCluster,Cluste,eCluster,dCluster,UCluster,ClusterR,μCluster,sCluster,5Cluster,Cluster,PCluster,ClusterX</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6422,6 +6956,11 @@
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>DCluster,WCluster,pCluster,ACluster,MCluster,Cluster®,SCluster,ClusterW,ClusterM,ClusterT,¥Cluster,iCluster,RCluster,FCluster,Clusters,hCluster,kCluster,aCluster,cCluster,1Cluster,Cluster8,xCluster,Cluster3,ClusterA,mCluster,:Cluster,XCluster,Cluste,eCluster,dCluster,UCluster,ClusterR,μCluster,sCluster,5Cluster,Cluster,PCluster,ClusterX</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6474,6 +7013,11 @@
         </is>
       </c>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>DCluster,WCluster,pCluster,ACluster,MCluster,Cluster®,SCluster,ClusterW,ClusterM,ClusterT,¥Cluster,iCluster,RCluster,FCluster,Clusters,hCluster,kCluster,aCluster,cCluster,1Cluster,Cluster8,xCluster,Cluster3,ClusterA,mCluster,:Cluster,XCluster,Cluste,eCluster,dCluster,UCluster,ClusterR,μCluster,sCluster,5Cluster,Cluster,PCluster,ClusterX</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6526,6 +7070,11 @@
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>DCluster,WCluster,pCluster,ACluster,MCluster,Cluster®,SCluster,ClusterW,ClusterM,ClusterT,¥Cluster,iCluster,RCluster,FCluster,Clusters,hCluster,kCluster,aCluster,cCluster,1Cluster,Cluster8,xCluster,Cluster3,ClusterA,mCluster,:Cluster,XCluster,Cluste,eCluster,dCluster,UCluster,ClusterR,μCluster,sCluster,5Cluster,Cluster,PCluster,ClusterX</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6582,6 +7131,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>R package sn,R package CSAR,R package PK,R package VARS,R package CVST,R package SMAT,R package SC3,R package BaSTA,R package SC2P,R package BETAREG,R package RAR,R package SPEI,R package “p,R package ez,R package ‘STATS’,R package,,R package ca,R package FW,R package ARM,R package HH,R package SIS,R package SIM,R package SQUAREM,R package STRING,R package sm,R package SSCLUST,R package CARE,R package SICS,R package MAXSTAT,R package FD,R package JM,R package SMCP,R package AF,R package SCAM,R package SSDM,R package SOM,R package STATS,R package st,R package mt,R package MI,R package BB,R package (,R package MR,R package SoDA,R package SPIn,R package SSAR,R package STARTRAC,R package ks,R package SSN,R package SGAT,R package SCAN,R package g,R package tm,R package ML,R package np,R package SCDE,R package SKAT,R package BART,R package StTAMPP,R package VAST,R package:,R package sf,R package STPGA,R package1,R package SMUT,R package (R,R package MAR1,R package SAM,R package SCCA,R package DTA,R package HZAR,R package SIMR,R package3,R package DT,R package STANDARICH,R package CAR,R package SPP,R package AROC,R package SIAR,R package to,R package My,R package r,R package iq,R package ARES,R package FIAR,R package SVA,R package SP,R package q,R package TAM,R package Surv,R package DART,R packaged,R package SPARSim,R package SLHD,R package SIBR,R package SEM,R package2,R package EZ,R package SPARTAN,R package NB,R package of,R package sp,R package cn,R package NST,R package Stat,R package BF,R package SGL,R package SPARCC,R package R0,R package rq,R package SECR,R package SAFE,R package CA,R package SNMF,R package MST,R package R,R package SimR,R package SPIA,R package LD,R package STACKR,R package STAMPP,R package SITAR,R package MAST,R package mi,R package ga,R package STRATAG,R package BEST,R package GA,R package GO,R package MVST,R package openSTARS,R package SEG,R package CM,R package lm</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6634,6 +7188,11 @@
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>R2D</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6690,6 +7249,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Rainbow2,Rainbow,RAINBOWRMSD,RAINBOW,RAINBOWc,RainbowRMSD,RAINBOWb,RAINBO,BRAINBOW</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6746,6 +7310,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Rainbow2,Rainbow,RAINBOWRMSD,RAINBOW,RAINBOWc,RainbowRMSD,RAINBOWb,RAINBO,BRAINBOW</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6802,6 +7371,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Rainbow2,Rainbow,RAINBOWRMSD,RAINBOW,RAINBOWc,RainbowRMSD,RAINBOWb,RAINBO,BRAINBOW</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6854,6 +7428,11 @@
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Rainbow2,Rainbow,RAINBOWRMSD,RAINBOW,RAINBOWc,RainbowRMSD,RAINBOWb,RAINBO,BRAINBOW</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6910,6 +7489,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Rainbow2,Rainbow,RAINBOWRMSD,RAINBOW,RAINBOWc,RainbowRMSD,RAINBOWb,RAINBO,BRAINBOW</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6966,6 +7550,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>iDistance,IDistance,“Distance, distance,gdistance,Distances,gDistance,distance,Rdist,Distance</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7018,6 +7607,11 @@
         </is>
       </c>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Track,ARTTrack,LSRtrack,Rtracklayer,RTrackLayer,CSRTrack,track</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7070,6 +7664,11 @@
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>CINA,SCINA R,SCINAto</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7122,6 +7721,11 @@
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>CINA,SCINA R,SCINAto</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7174,6 +7778,11 @@
         </is>
       </c>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>CINA,SCINA R,SCINAto</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7226,6 +7835,11 @@
         </is>
       </c>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>CINA,SCINA R,SCINAto</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7278,6 +7892,11 @@
         </is>
       </c>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>CINA,SCINA R,SCINAto</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7330,6 +7949,11 @@
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7382,6 +8006,11 @@
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7434,6 +8063,11 @@
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7486,6 +8120,11 @@
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7538,6 +8177,11 @@
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7590,6 +8234,11 @@
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7642,6 +8291,11 @@
         </is>
       </c>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>R package SPAtest,SPAtest R package,PATest</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7698,6 +8352,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7750,6 +8409,11 @@
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7802,6 +8466,11 @@
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7854,6 +8523,11 @@
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7906,6 +8580,11 @@
         </is>
       </c>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7958,6 +8637,11 @@
         </is>
       </c>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>STAR RNA-seq aligner,STAR RNA-seq aligner48,STAR RNA‐seq aligner,STAR RNAseq aligner,STAR (RNA-seq aligner,STAR RNA-Seq aligner,STAR RNA-seq Aligner</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8010,6 +8694,11 @@
         </is>
       </c>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>DNA STAR package,SITAR package,STAP package,DNASTAR package,CAR package</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8062,6 +8751,11 @@
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>DNA STAR package,SITAR package,STAP package,DNASTAR package,CAR package</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8114,6 +8808,11 @@
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>luteinizing hormone-induced protein,(STAR),steroidogenic acute regulatory protein,mitochondrial,star),stard1,start domain-containing protein 1,star,STAR</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8166,6 +8865,11 @@
         </is>
       </c>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>luteinizing hormone-induced protein,(STAR),steroidogenic acute regulatory protein,mitochondrial,star),stard1,start domain-containing protein 1,star,STAR</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8218,6 +8922,11 @@
         </is>
       </c>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>STAR) aligner,STAR RNA-seq aligner,luteinizing hormone-induced protein,STAR RNAseq aligner,star) rna-seq aligner,steroidogenic acute regulatory protein,mitochondrial,STAR RNA-Seq aligner42,start domain-containing protein 1,stard1,STAR RNA-Seq aligner,star,STAR RNA‐Seq aligner</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8270,6 +8979,11 @@
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>STAR alignner,STARaligner,STAR aligner23,luteinizing hormone-induced protein,STAR aligner66,STAR’ aligner,steroidogenic acute regulatory protein,mitochondrial,STAR aligner57,STAR aligners,STAR aligner59,start domain-containing protein 1,stard1,STAR2 aligner,star) aligner,star,STAR) RNA-Seq aligner,STAR aligner</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8326,6 +9040,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Sentiment Analysis Applied,SentimentAnalysis” R,Sentiment Analysis (ABSA),Sentiment Analysis,Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8382,6 +9101,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Sentiment Analysis Applied,SentimentAnalysis” R,Sentiment Analysis (ABSA),Sentiment Analysis,Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8434,6 +9158,11 @@
         </is>
       </c>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Sentiment Analysis Applied,SentimentAnalysis” R,Sentiment Analysis (ABSA),Sentiment Analysis,Sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8490,6 +9219,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>SeuratObjects,Seurat Object</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8542,6 +9276,11 @@
         </is>
       </c>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>SeuratObjects,Seurat Object</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8594,6 +9333,11 @@
         </is>
       </c>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Sparser,Sparsey,Sparse,SparseM,SparseDOSA,SparseDTW,SparseK,Spars,SparseData</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8646,6 +9390,11 @@
         </is>
       </c>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Sscrofa11,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,STAR (Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8698,6 +9447,11 @@
         </is>
       </c>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8750,6 +9504,11 @@
         </is>
       </c>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8802,6 +9561,11 @@
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8854,6 +9618,11 @@
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8906,6 +9675,11 @@
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8958,6 +9732,11 @@
         </is>
       </c>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Spliced Transcripts Alignments to a Reference (STAR,Spliced Transcripts Alignment to a Reference program (STAR,Spliced Transcripts Alignment to a Reference,or STAR,Spliced Transcript Alignment to a Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-Seq aligner,STAR (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to a Reference (STAR,Spliced Transcripts Alignment to Reference (STAR),Spliced Transcripts Alignment to a Reference (STAR) RNA-seq aligner,Spliced Transcripts Alignment to a Reference (STAR-2,Spliced Transcripts Alignment to Reference (STAR-aligner),Spliced Transcripts Alignment (STAR),Splice Transcripts Alignment to a Reference,STAR) (Spliced Transcripts Alignment to a Reference),Spliced Transcripts Alignment to Reference,Spliced Transcripts Alignment to a Reference (STAR) mapper,Spliced Transcripts Alignment to a Reference (STAR) aligner,Spliced Transcripts Alignment,Spliced Transcripts Alignment to a Reference RNA-seq,Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference tool (STAR,Splicing Transcripts Alignment Reference (STAR),Spliced Transcripts Alignment to a Reference) aligner,Spliced Transcripts Alignment to,Spliced Transcripts Alignment to Reference (STARv2,Spliced Transcripts Alignment to Reference tool (STAR,Spliced Transcripts Alignment to a Reference (2,Spliced Transcripts Alignment to Reference),Spliced Transcripts Alignment to a Reference software (STAR),Spliced Transcripts Alignment to Reference (STAR) aligner,STAR (Spliced Transcripts Alignment to a Reference,Spliced Transcripts Alignment to a Reference (STAR) RNA-seq</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9010,6 +9789,11 @@
         </is>
       </c>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9062,6 +9846,11 @@
         </is>
       </c>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9114,6 +9903,11 @@
         </is>
       </c>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9166,6 +9960,11 @@
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Statis,Statist,Statistica®8,StatisticaPl,Statistica13,Statistical,Statistica©,Statistica®,Statista®,Statistica5,Statistica-8,StatistX,Statistica16,StatistiXL,Statistician,StatisticTM,Statistica/W,Statistica7,Statistique,Statistix-10,Statistix-8,StatistiXl,STATIS,Statistics,statistal,Statisticа,Statistix®,Statistic-z,Statistics:,Statistica12,Statistix,STATISTICA8,Statista,statistix,Statistica8,Statistica X,Statistica9,Statisti×,STATISTICS,STATISTIKA,Statistix10,statistics,statis,Statistix9,Statistx,StatisticaPL,Statistca,STATISTICA13,Statistics),StatisticaTM,Statistica11,statistica,STATISTICA12,Statistix®8,Stati,STATISTICA6,Statistix8,Statistics®,Statistica6,StatistXL,statistical,Statista3,Statitix,StatisticXL,Statistix-9,Statistic®,STATISTICA15,STATISTA,Statistica,Statistica®7,Statistica-7,Statistics,,statistiXL,STATISTCA,statistica°,Statistika,STATISTICA®7,STATISTICA7©,Statistcs,STATISTICATM,statista,STATISTICA®,STATISTICA-6,Statisticav,STATISTIX8,STATISTIC,StatisticW0,Statistico,STATISTICA,STATISTICS®,Statistiques,STATIX,StatisticaR,StatistiKL,STATISTICs,Statistic,Statistixl,STATISTICAL,Statistic "R,statistic,Statisticon,STATISTICA10,Statistica10,STATISTICA9,STATIST,Statistica1,Statistica°,STATISTICA8©,Statisti,Statistika®,StatistiXL®,STATISTIK,statistix9,STATISTICA7,STATISTICA©,STATISTICA/W,Statistix7</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9218,6 +10017,7 @@
         </is>
       </c>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9270,6 +10070,7 @@
         </is>
       </c>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9322,6 +10123,7 @@
         </is>
       </c>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9374,6 +10176,7 @@
         </is>
       </c>
       <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9426,6 +10229,7 @@
         </is>
       </c>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9478,6 +10282,11 @@
         </is>
       </c>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>TunePareto R package</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9530,6 +10339,11 @@
         </is>
       </c>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>TunePareto R package</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9582,6 +10396,11 @@
         </is>
       </c>
       <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>TunePareto R package</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -9634,6 +10453,11 @@
         </is>
       </c>
       <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>TunePareto R package</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -9690,6 +10514,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>TunePareto R package</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -9742,6 +10571,11 @@
         </is>
       </c>
       <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Velvet-sc,Velveth,D-Velvet,Velvet®,Velvetbean,Velvet +,Velvet81,velvet,Velvet32,Velvet38,Velvet34,VelvetSC60,Velvet58,velvet1,Velvet30,Velvetopt,velvet-sc,velvet-1,Velvet de,Velvet29,Velvet42,velveth,Velvet24,Velvet-Cap3,Velvet-CAP3,Velvet_v1,Velvetk,Velvetleaf,Velvet23,Velvet-SC,VELVETH,Velvet’,Velvet_1,Velvet-S,VelvetSC,VELVETG,VelvetK,VelvetOases,Velvet43,Velvet-1,Velvetde,Velvet1,Velvet50,Velvet21,velvetg,Velvetg,Velvet26,Velvetver,aVelvet,Velvet75</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -9794,6 +10628,11 @@
         </is>
       </c>
       <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Velvet-sc,Velveth,D-Velvet,Velvet®,Velvetbean,Velvet +,Velvet81,velvet,Velvet32,Velvet38,Velvet34,VelvetSC60,Velvet58,velvet1,Velvet30,Velvetopt,velvet-sc,velvet-1,Velvet de,Velvet29,Velvet42,velveth,Velvet24,Velvet-Cap3,Velvet-CAP3,Velvet_v1,Velvetk,Velvetleaf,Velvet23,Velvet-SC,VELVETH,Velvet’,Velvet_1,Velvet-S,VelvetSC,VELVETG,VelvetK,VelvetOases,Velvet43,Velvet-1,Velvetde,Velvet1,Velvet50,Velvet21,velvetg,Velvetg,Velvet26,Velvetver,aVelvet,Velvet75</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -9846,6 +10685,11 @@
         </is>
       </c>
       <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Velvet-sc,Velveth,D-Velvet,Velvet®,Velvetbean,Velvet +,Velvet81,velvet,Velvet32,Velvet38,Velvet34,VelvetSC60,Velvet58,velvet1,Velvet30,Velvetopt,velvet-sc,velvet-1,Velvet de,Velvet29,Velvet42,velveth,Velvet24,Velvet-Cap3,Velvet-CAP3,Velvet_v1,Velvetk,Velvetleaf,Velvet23,Velvet-SC,VELVETH,Velvet’,Velvet_1,Velvet-S,VelvetSC,VELVETG,VelvetK,VelvetOases,Velvet43,Velvet-1,Velvetde,Velvet1,Velvet50,Velvet21,velvetg,Velvetg,Velvet26,Velvetver,aVelvet,Velvet75</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9898,6 +10742,11 @@
         </is>
       </c>
       <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Velvet-sc,Velveth,D-Velvet,Velvet®,Velvetbean,Velvet +,Velvet81,velvet,Velvet32,Velvet38,Velvet34,VelvetSC60,Velvet58,velvet1,Velvet30,Velvetopt,velvet-sc,velvet-1,Velvet de,Velvet29,Velvet42,velveth,Velvet24,Velvet-Cap3,Velvet-CAP3,Velvet_v1,Velvetk,Velvetleaf,Velvet23,Velvet-SC,VELVETH,Velvet’,Velvet_1,Velvet-S,VelvetSC,VELVETG,VelvetK,VelvetOases,Velvet43,Velvet-1,Velvetde,Velvet1,Velvet50,Velvet21,velvetg,Velvetg,Velvet26,Velvetver,aVelvet,Velvet75</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -9950,6 +10799,11 @@
         </is>
       </c>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Velvet-sc,Velveth,D-Velvet,Velvet®,Velvetbean,Velvet +,Velvet81,velvet,Velvet32,Velvet38,Velvet34,VelvetSC60,Velvet58,velvet1,Velvet30,Velvetopt,velvet-sc,velvet-1,Velvet de,Velvet29,Velvet42,velveth,Velvet24,Velvet-Cap3,Velvet-CAP3,Velvet_v1,Velvetk,Velvetleaf,Velvet23,Velvet-SC,VELVETH,Velvet’,Velvet_1,Velvet-S,VelvetSC,VELVETG,VelvetK,VelvetOases,Velvet43,Velvet-1,Velvetde,Velvet1,Velvet50,Velvet21,velvetg,Velvetg,Velvet26,Velvetver,aVelvet,Velvet75</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10006,6 +10860,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Weighted,Weight</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10058,6 +10917,11 @@
         </is>
       </c>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Weighted,Weight</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10114,6 +10978,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Activ,Tractivity®,Tractivity,ActivityMeasure,Activiteit,ActivityStat,ActivityBase XE,ActivityScore,ActivityMonitor,Activio,Activity Atlas,ActivityProbe,Activity Survey,Activity Log,ActivityLoop,Activitybot,‘activity’,ActivityResNet,activity cage,Activity-Sim,Activia,ActivityTracker,My Activity,activity,Activity (RSA),ACTIVITAL,ACTIVITY [UNK],Activity Plots,Activity3D,Activity Scan,ActivityScope,MyActivity,PROACTIVITY,Activity Theory,ACTIVIA,Activity Linker,Activity Recall,ActivityBase,OF Activity,activity-stat,Activities,ActivityAware,Activity Base,Activitygram,activitybase,Activity List,ACTIVITYBASE,“activity,ACTIV,Activity System,Activity Score,ActivityManager,CReActivity,Activity Plot,Activité,ActivityIndex,ActivityInfo,Activity2Vec,ACTIVITIES,Activity,Activity Coach,ActivityNet,ActivityX16,activity-atlas,ActivityCoach,Activity base,ACTIVITYGRAM,Inactivity),Activiti,Activity Wheel,Activity Map,BioActivity</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10166,6 +11035,11 @@
         </is>
       </c>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Activ,Tractivity®,Tractivity,ActivityMeasure,Activiteit,ActivityStat,ActivityBase XE,ActivityScore,ActivityMonitor,Activio,Activity Atlas,ActivityProbe,Activity Survey,Activity Log,ActivityLoop,Activitybot,‘activity’,ActivityResNet,activity cage,Activity-Sim,Activia,ActivityTracker,My Activity,activity,Activity (RSA),ACTIVITAL,ACTIVITY [UNK],Activity Plots,Activity3D,Activity Scan,ActivityScope,MyActivity,PROACTIVITY,Activity Theory,ACTIVIA,Activity Linker,Activity Recall,ActivityBase,OF Activity,activity-stat,Activities,ActivityAware,Activity Base,Activitygram,activitybase,Activity List,ACTIVITYBASE,“activity,ACTIV,Activity System,Activity Score,ActivityManager,CReActivity,Activity Plot,Activité,ActivityIndex,ActivityInfo,Activity2Vec,ACTIVITIES,Activity,Activity Coach,ActivityNet,ActivityX16,activity-atlas,ActivityCoach,Activity base,ACTIVITYGRAM,Inactivity),Activiti,Activity Wheel,Activity Map,BioActivity</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10218,6 +11092,11 @@
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Activ,Tractivity®,Tractivity,ActivityMeasure,Activiteit,ActivityStat,ActivityBase XE,ActivityScore,ActivityMonitor,Activio,Activity Atlas,ActivityProbe,Activity Survey,Activity Log,ActivityLoop,Activitybot,‘activity’,ActivityResNet,activity cage,Activity-Sim,Activia,ActivityTracker,My Activity,activity,Activity (RSA),ACTIVITAL,ACTIVITY [UNK],Activity Plots,Activity3D,Activity Scan,ActivityScope,MyActivity,PROACTIVITY,Activity Theory,ACTIVIA,Activity Linker,Activity Recall,ActivityBase,OF Activity,activity-stat,Activities,ActivityAware,Activity Base,Activitygram,activitybase,Activity List,ACTIVITYBASE,“activity,ACTIV,Activity System,Activity Score,ActivityManager,CReActivity,Activity Plot,Activité,ActivityIndex,ActivityInfo,Activity2Vec,ACTIVITIES,Activity,Activity Coach,ActivityNet,ActivityX16,activity-atlas,ActivityCoach,Activity base,ACTIVITYGRAM,Inactivity),Activiti,Activity Wheel,Activity Map,BioActivity</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10274,6 +11153,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Activ,Tractivity®,Tractivity,ActivityMeasure,Activiteit,ActivityStat,ActivityBase XE,ActivityScore,ActivityMonitor,Activio,Activity Atlas,ActivityProbe,Activity Survey,Activity Log,ActivityLoop,Activitybot,‘activity’,ActivityResNet,activity cage,Activity-Sim,Activia,ActivityTracker,My Activity,activity,Activity (RSA),ACTIVITAL,ACTIVITY [UNK],Activity Plots,Activity3D,Activity Scan,ActivityScope,MyActivity,PROACTIVITY,Activity Theory,ACTIVIA,Activity Linker,Activity Recall,ActivityBase,OF Activity,activity-stat,Activities,ActivityAware,Activity Base,Activitygram,activitybase,Activity List,ACTIVITYBASE,“activity,ACTIV,Activity System,Activity Score,ActivityManager,CReActivity,Activity Plot,Activité,ActivityIndex,ActivityInfo,Activity2Vec,ACTIVITIES,Activity,Activity Coach,ActivityNet,ActivityX16,activity-atlas,ActivityCoach,Activity base,ACTIVITYGRAM,Inactivity),Activiti,Activity Wheel,Activity Map,BioActivity</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10330,6 +11214,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Activ,Tractivity®,Tractivity,ActivityMeasure,Activiteit,ActivityStat,ActivityBase XE,ActivityScore,ActivityMonitor,Activio,Activity Atlas,ActivityProbe,Activity Survey,Activity Log,ActivityLoop,Activitybot,‘activity’,ActivityResNet,activity cage,Activity-Sim,Activia,ActivityTracker,My Activity,activity,Activity (RSA),ACTIVITAL,ACTIVITY [UNK],Activity Plots,Activity3D,Activity Scan,ActivityScope,MyActivity,PROACTIVITY,Activity Theory,ACTIVIA,Activity Linker,Activity Recall,ActivityBase,OF Activity,activity-stat,Activities,ActivityAware,Activity Base,Activitygram,activitybase,Activity List,ACTIVITYBASE,“activity,ACTIV,Activity System,Activity Score,ActivityManager,CReActivity,Activity Plot,Activité,ActivityIndex,ActivityInfo,Activity2Vec,ACTIVITIES,Activity,Activity Coach,ActivityNet,ActivityX16,activity-atlas,ActivityCoach,Activity base,ACTIVITYGRAM,Inactivity),Activiti,Activity Wheel,Activity Map,BioActivity</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10386,6 +11275,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>ADSC,ADSA,AdSS,ADSM,ADSS,AdSC,AdSV,ADSV,ADS),ADST,aDSM,ADSP,ADSO,aDST</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10438,6 +11332,11 @@
         </is>
       </c>
       <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Vampir</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10494,6 +11393,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>ANalysis Of Cluster VAriability,anocva,rmANOCVA,ANOCVA R,Analysis of Cluster Variability</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -10546,6 +11450,11 @@
         </is>
       </c>
       <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>assignPOP R package,AssignPop,assignPOPwere,Assign,R package assignPOP,AssignPOP,assignPOP,assign,assignPOP R</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -10598,6 +11507,11 @@
         </is>
       </c>
       <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>assignPOP R package,AssignPop,assignPOPwere,Assign,R package assignPOP,AssignPOP,assignPOP,assign,assignPOP R</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -10650,6 +11564,11 @@
         </is>
       </c>
       <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>assignPOP R package,AssignPop,assignPOPwere,Assign,R package assignPOP,AssignPOP,assignPOP,assign,assignPOP R</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -10702,6 +11621,11 @@
         </is>
       </c>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>assignPOP R package,AssignPop,assignPOPwere,Assign,R package assignPOP,AssignPOP,assignPOP,assign,assignPOP R</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -10758,6 +11682,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>assignPOP R package,AssignPop,assignPOPwere,Assign,R package assignPOP,AssignPOP,assignPOP,assign,assignPOP R</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -10810,6 +11739,11 @@
         </is>
       </c>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Beautiful Soup”,beautiful-soup,Beautiful,Beautiful soup,Beautiful Soup,BeautifulSoup,BeatifulSoup,beautifulsoup,BeautifulSoup9</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -10862,6 +11796,7 @@
         </is>
       </c>
       <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -10918,6 +11853,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -10970,6 +11906,11 @@
         </is>
       </c>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>biopython</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11022,6 +11963,11 @@
         </is>
       </c>
       <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>biopython</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11074,6 +12020,11 @@
         </is>
       </c>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>biopython</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11126,6 +12077,11 @@
         </is>
       </c>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>biopython</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11178,6 +12134,11 @@
         </is>
       </c>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>biopython</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11230,6 +12191,11 @@
         </is>
       </c>
       <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>biosignalEMG package</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11282,6 +12248,11 @@
         </is>
       </c>
       <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>biosignalEMG package</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11338,6 +12309,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>boot</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -11394,6 +12370,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>boot</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -11450,6 +12431,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Regulomes,Regulome,scRegulome,cRegulome R package</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -11502,6 +12488,11 @@
         </is>
       </c>
       <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Regulomes,Regulome,scRegulome,cRegulome R package</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -11554,6 +12545,11 @@
         </is>
       </c>
       <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Regulomes,Regulome,scRegulome,cRegulome R package</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -11606,6 +12602,11 @@
         </is>
       </c>
       <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Regulomes,Regulome,scRegulome,cRegulome R package</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -11662,6 +12663,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>CATMAN,Catman,CATM,CATMAT,Catma,Catmap.pl,CatM,CATMA</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -11714,6 +12720,11 @@
         </is>
       </c>
       <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>CATMAN,Catman,CATM,CATMAT,Catma,Catmap.pl,CatM,CATMA</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -11766,6 +12777,11 @@
         </is>
       </c>
       <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>CATMAN,Catman,CATM,CATMAT,Catma,Catmap.pl,CatM,CATMA</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -11822,6 +12838,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>CATMAN,Catman,CATM,CATMAT,Catma,Catmap.pl,CatM,CATMA</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -11878,6 +12899,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>CATMAN,Catman,CATM,CATMAT,Catma,Catmap.pl,CatM,CATMA</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -11930,6 +12956,11 @@
         </is>
       </c>
       <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Cellranger-atac,CellRank,CellRanger,CellRanger2,cellranger vdj,cellRanger-atac,cellrangerRkit,Cell Ranger3,Cellranger mkfastq,Cellranger VDJ,CellRanger mkfastq,Cellranger ATAC,CellRanger ATAC,Cellranger mkref,Cellranger count,cellranger suite,CellRanger VDJ,Cellranger,10×Cellranger,cellRanger,cellranger R-kit,CellRanger mkref,CellRanger pipeline,Cellranger V(D)J,cellranger mkfastq,cellrangerRrkit,cellRanger mat2csv,cellranger,cellranger-arc,Cell Ranger,cellRanger aggr,Cellranger suites,CellRanger-atac,cellranger aggr,CellRanger R,CellRangerv3,cellranger count,CellRanger1,CellRanger mm10,cellranger-atac,cell ranger,Cell Rangers,Cellranger‐atac,CellRanger aggr,cellranger mkfastq1,Cell ranger,Cellranger (10X,Cellranger aggr,Cellranger pipeline,Cell-Ranger,CELL RANGER,cellranger mkref,CellRanger Pipeline</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -11982,6 +13013,11 @@
         </is>
       </c>
       <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Cellranger-atac,CellRank,CellRanger,CellRanger2,cellranger vdj,cellRanger-atac,cellrangerRkit,Cell Ranger3,Cellranger mkfastq,Cellranger VDJ,CellRanger mkfastq,Cellranger ATAC,CellRanger ATAC,Cellranger mkref,Cellranger count,cellranger suite,CellRanger VDJ,Cellranger,10×Cellranger,cellRanger,cellranger R-kit,CellRanger mkref,CellRanger pipeline,Cellranger V(D)J,cellranger mkfastq,cellrangerRrkit,cellRanger mat2csv,cellranger,cellranger-arc,Cell Ranger,cellRanger aggr,Cellranger suites,CellRanger-atac,cellranger aggr,CellRanger R,CellRangerv3,cellranger count,CellRanger1,CellRanger mm10,cellranger-atac,cell ranger,Cell Rangers,Cellranger‐atac,CellRanger aggr,cellranger mkfastq1,Cell ranger,Cellranger (10X,Cellranger aggr,Cellranger pipeline,Cell-Ranger,CELL RANGER,cellranger mkref,CellRanger Pipeline</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12034,6 +13070,11 @@
         </is>
       </c>
       <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Cellranger-atac,CellRank,CellRanger,CellRanger2,cellranger vdj,cellRanger-atac,cellrangerRkit,Cell Ranger3,Cellranger mkfastq,Cellranger VDJ,CellRanger mkfastq,Cellranger ATAC,CellRanger ATAC,Cellranger mkref,Cellranger count,cellranger suite,CellRanger VDJ,Cellranger,10×Cellranger,cellRanger,cellranger R-kit,CellRanger mkref,CellRanger pipeline,Cellranger V(D)J,cellranger mkfastq,cellrangerRrkit,cellRanger mat2csv,cellranger,cellranger-arc,Cell Ranger,cellRanger aggr,Cellranger suites,CellRanger-atac,cellranger aggr,CellRanger R,CellRangerv3,cellranger count,CellRanger1,CellRanger mm10,cellranger-atac,cell ranger,Cell Rangers,Cellranger‐atac,CellRanger aggr,cellranger mkfastq1,Cell ranger,Cellranger (10X,Cellranger aggr,Cellranger pipeline,Cell-Ranger,CELL RANGER,cellranger mkref,CellRanger Pipeline</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12086,6 +13127,11 @@
         </is>
       </c>
       <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Cellranger-atac,CellRank,CellRanger,CellRanger2,cellranger vdj,cellRanger-atac,cellrangerRkit,Cell Ranger3,Cellranger mkfastq,Cellranger VDJ,CellRanger mkfastq,Cellranger ATAC,CellRanger ATAC,Cellranger mkref,Cellranger count,cellranger suite,CellRanger VDJ,Cellranger,10×Cellranger,cellRanger,cellranger R-kit,CellRanger mkref,CellRanger pipeline,Cellranger V(D)J,cellranger mkfastq,cellrangerRrkit,cellRanger mat2csv,cellranger,cellranger-arc,Cell Ranger,cellRanger aggr,Cellranger suites,CellRanger-atac,cellranger aggr,CellRanger R,CellRangerv3,cellranger count,CellRanger1,CellRanger mm10,cellranger-atac,cell ranger,Cell Rangers,Cellranger‐atac,CellRanger aggr,cellranger mkfastq1,Cell ranger,Cellranger (10X,Cellranger aggr,Cellranger pipeline,Cell-Ranger,CELL RANGER,cellranger mkref,CellRanger Pipeline</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12142,6 +13188,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Cellranger-atac,CellRank,CellRanger,CellRanger2,cellranger vdj,cellRanger-atac,cellrangerRkit,Cell Ranger3,Cellranger mkfastq,Cellranger VDJ,CellRanger mkfastq,Cellranger ATAC,CellRanger ATAC,Cellranger mkref,Cellranger count,cellranger suite,CellRanger VDJ,Cellranger,10×Cellranger,cellRanger,cellranger R-kit,CellRanger mkref,CellRanger pipeline,Cellranger V(D)J,cellranger mkfastq,cellrangerRrkit,cellRanger mat2csv,cellranger,cellranger-arc,Cell Ranger,cellRanger aggr,Cellranger suites,CellRanger-atac,cellranger aggr,CellRanger R,CellRangerv3,cellranger count,CellRanger1,CellRanger mm10,cellranger-atac,cell ranger,Cell Rangers,Cellranger‐atac,CellRanger aggr,cellranger mkfastq1,Cell ranger,Cellranger (10X,Cellranger aggr,Cellranger pipeline,Cell-Ranger,CELL RANGER,cellranger mkref,CellRanger Pipeline</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12198,6 +13249,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>ECGraph,Graph,graph</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12254,6 +13310,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>ChemometricsWithR,Chemometrics,R-chemometric,Chemometric,chemometric,chemometrics,“chemometrics</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12306,6 +13367,11 @@
         </is>
       </c>
       <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>ChemometricsWithR,Chemometrics,R-chemometric,Chemometric,chemometric,chemometrics,“chemometrics</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12362,6 +13428,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>ChemometricsWithR,Chemometrics,R-chemometric,Chemometric,chemometric,chemometrics,“chemometrics</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -12418,6 +13489,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>ChemometricsWithR,Chemometrics,R-chemometric,Chemometric,chemometric,chemometrics,“chemometrics</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -12474,6 +13550,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>ChemometricsWithR,Chemometrics,R-chemometric,Chemometric,chemometric,chemometrics,“chemometrics</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -12530,6 +13611,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>cob,R-package cobs,COB,COOBS</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -12582,6 +13668,7 @@
         </is>
       </c>
       <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -12634,6 +13721,7 @@
         </is>
       </c>
       <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -12686,6 +13774,7 @@
         </is>
       </c>
       <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -12738,6 +13827,7 @@
         </is>
       </c>
       <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -12790,6 +13880,7 @@
         </is>
       </c>
       <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -12846,6 +13937,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Cytofworkflow,cytofWorkflow,Cytof,Cytoflow,cytoflow,cytof</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -12902,6 +13998,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>DAEM,DAEA,DAEL,DAEI,DAEO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -12958,6 +14059,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>DAEM,DAEA,DAEL,DAEI,DAEO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13014,6 +14120,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>DAEM,DAEA,DAEL,DAEI,DAEO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13070,6 +14181,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>DAEM,DAEA,DAEL,DAEI,DAEO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13126,6 +14242,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13182,6 +14303,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13238,6 +14364,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -13290,6 +14421,11 @@
         </is>
       </c>
       <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -13346,6 +14482,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -13402,6 +14543,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -13458,6 +14604,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -13510,6 +14661,11 @@
         </is>
       </c>
       <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -13566,6 +14722,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -13622,6 +14783,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>data.table_1</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -13674,6 +14840,11 @@
         </is>
       </c>
       <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>R package deepredeff</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -13726,6 +14897,7 @@
         </is>
       </c>
       <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -13782,6 +14954,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -13838,6 +15015,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -13894,6 +15076,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -13950,6 +15137,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14002,6 +15194,11 @@
         </is>
       </c>
       <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14058,6 +15255,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14114,6 +15316,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14170,6 +15377,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -14226,6 +15438,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -14278,6 +15495,11 @@
         </is>
       </c>
       <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -14334,6 +15556,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>R packages ‘dplyr’,R library dplyr,R packages dplyr,dplyr,dplyr R,R package dplyr,R package 'corrr' and 'dplyr,dplyr package,dplyr_0,PLYR,dplyr’,R library “dplyr,R Package dplyr,dplyr R-package,R-package ‘dplyr,dplyr42,R-package dplyr,R package “dplyr,R package “dplyr”,package dplyr,plyr,dplyr R package,dply,R package ‘dplyr,R package ‘dplyr’,dplyr19</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -14386,6 +15613,7 @@
         </is>
       </c>
       <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -14442,6 +15670,7 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -14494,6 +15723,7 @@
         </is>
       </c>
       <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -14546,6 +15776,7 @@
         </is>
       </c>
       <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -14598,6 +15829,7 @@
         </is>
       </c>
       <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -14654,6 +15886,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Earthv1,Earthmine,EARTHDATA,Earthstar,EarthTech,earth Pro,EarthCube,Earth-WS,EarthCape,Earther,Earthmate,Earthscan,MEarth,Eartha,EarthStat,EarthTec®,EarthCARE,EART,EarthZyme,EARTHTIME,EarthSat,EarthLook,Earthstat,EARTHSTAT,Earthsky,R-package “earth,EarthDNA,Earth3P,Earth Pro,earthpy,EarthData,Earthrise,earth R,EarthCam,EarthCare,Earthworm,Earthox,EarthChem,Earthlink,Earth®,EarthEnv,Earthtm,Earthdata</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -14706,6 +15943,11 @@
         </is>
       </c>
       <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Earthv1,Earthmine,EARTHDATA,Earthstar,EarthTech,earth Pro,EarthCube,Earth-WS,EarthCape,Earther,Earthmate,Earthscan,MEarth,Eartha,EarthStat,EarthTec®,EarthCARE,EART,EarthZyme,EARTHTIME,EarthSat,EarthLook,Earthstat,EARTHSTAT,Earthsky,R-package “earth,EarthDNA,Earth3P,Earth Pro,earthpy,EarthData,Earthrise,earth R,EarthCam,EarthCare,Earthworm,Earthox,EarthChem,Earthlink,Earth®,EarthEnv,Earthtm,Earthdata</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -14762,6 +16004,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Earthv1,Earthmine,EARTHDATA,Earthstar,EarthTech,earth Pro,EarthCube,Earth-WS,EarthCape,Earther,Earthmate,Earthscan,MEarth,Eartha,EarthStat,EarthTec®,EarthCARE,EART,EarthZyme,EARTHTIME,EarthSat,EarthLook,Earthstat,EARTHSTAT,Earthsky,R-package “earth,EarthDNA,Earth3P,Earth Pro,earthpy,EarthData,Earthrise,earth R,EarthCam,EarthCare,Earthworm,Earthox,EarthChem,Earthlink,Earth®,EarthEnv,Earthtm,Earthdata</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -14818,6 +16065,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Earthv1,Earthmine,EARTHDATA,Earthstar,EarthTech,earth Pro,EarthCube,Earth-WS,EarthCape,Earther,Earthmate,Earthscan,MEarth,Eartha,EarthStat,EarthTec®,EarthCARE,EART,EarthZyme,EARTHTIME,EarthSat,EarthLook,Earthstat,EARTHSTAT,Earthsky,R-package “earth,EarthDNA,Earth3P,Earth Pro,earthpy,EarthData,Earthrise,earth R,EarthCam,EarthCare,Earthworm,Earthox,EarthChem,Earthlink,Earth®,EarthEnv,Earthtm,Earthdata</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -14874,6 +16126,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Earthv1,Earthmine,EARTHDATA,Earthstar,EarthTech,earth Pro,EarthCube,Earth-WS,EarthCape,Earther,Earthmate,Earthscan,MEarth,Eartha,EarthStat,EarthTec®,EarthCARE,EART,EarthZyme,EARTHTIME,EarthSat,EarthLook,Earthstat,EARTHSTAT,Earthsky,R-package “earth,EarthDNA,Earth3P,Earth Pro,earthpy,EarthData,Earthrise,earth R,EarthCam,EarthCare,Earthworm,Earthox,EarthChem,Earthlink,Earth®,EarthEnv,Earthtm,Earthdata</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -14930,6 +16187,7 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -14982,6 +16240,7 @@
         </is>
       </c>
       <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -15034,6 +16293,11 @@
         </is>
       </c>
       <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>R package enetLTS</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -15086,6 +16350,11 @@
         </is>
       </c>
       <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>R package enetLTS</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -15138,6 +16407,11 @@
         </is>
       </c>
       <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>R package enetLTS</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -15190,6 +16464,11 @@
         </is>
       </c>
       <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>R package enetLTS</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -15242,6 +16521,11 @@
         </is>
       </c>
       <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>R package enetLTS</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -15294,6 +16578,7 @@
         </is>
       </c>
       <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -15346,6 +16631,11 @@
         </is>
       </c>
       <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Full Fact,fullfact package</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -15402,6 +16692,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Full Fact,fullfact package</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -15454,6 +16749,11 @@
         </is>
       </c>
       <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Full Fact,fullfact package</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -15510,6 +16810,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Full Fact,fullfact package</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -15566,6 +16871,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Full Fact,fullfact package</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -15618,6 +16928,7 @@
         </is>
       </c>
       <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -15670,6 +16981,7 @@
         </is>
       </c>
       <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -15726,6 +17038,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -15782,6 +17095,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -15838,6 +17152,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>fwdpy11</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -15894,6 +17213,7 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -15950,6 +17270,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16002,6 +17323,7 @@
         </is>
       </c>
       <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -16058,6 +17380,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -16114,6 +17437,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -16170,6 +17494,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -16226,6 +17551,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -16278,6 +17604,7 @@
         </is>
       </c>
       <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -16330,6 +17657,7 @@
         </is>
       </c>
       <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -16386,6 +17714,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -16442,6 +17775,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -16498,6 +17836,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -16554,6 +17897,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -16606,6 +17954,11 @@
         </is>
       </c>
       <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -16662,6 +18015,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -16718,6 +18076,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -16774,6 +18137,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -16830,6 +18198,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -16886,6 +18259,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>R package ‘ggplot2′,ggplot2 package of R,ggplot (ggplot2 R package,ggplot221,R function ggplot2,ggplot246,R-package ggplot2 -,GGplot2v1,‘ggplot2,ggplot262,R-package ‘ggplot2,“ggplot2,R / ggplot2,ggplot2.R,R ggplot2 package,R-package “ggplot2,R package ggplot2,ggplot266,R packages ggplot2,ggplots,R package ‘ggplot2,ggplot227,R package for visual analytics (ggplot2,ggplot264,Ggplots,R ggplot2 environment,r package ‘ggplot2,GGPLOT,R Cran packages ggplot2,R plotting system ggplot2,ggplot255,ggplot252,R ggplot2,ggplot258,ggplot289,R package (ggplot2,ggpplot2,ggplot2180,ggplot2; package,R ggPlot2,KMggplot2,R-package “ggplot2”,ggplot231,ggplot2 r,ggplot R,GGPlot,R-package ‘ggplot2’,ggplot254,package ggplot2,R package “ ggplot2,ggplot256,gplot2,ggplot261,ggPlot,R ‘ggplot2′,GGplot,ggplot,ggplot2485556,R “ggplot2 package,R library ggplot2,ggplot2 R graphics,ggplotly,ggplot2 R,ggplot234,ggplots2,ggplot248,ggplot2ʹ,ggplot2s,ggplot2 R language,ggplot2 (R,ggplot2_3,R package "ggplot2",R Packages ggplot2,ggplot244,ggplot2t,ggplot2 R library,ggplot219,ggplot2 package x,R package {ggplot2,R project ggplot2,ggpubr (ggplot2 Based Publication Ready Plots) of R,R “ggplot2”,R/Bioconductor package ggplot2,r package “ggplot2,R language ggplot2,ggplot2_2,R package "ggplot2,ggplot251,ggplot271,R-package ggplot2,'ggplot2,ggplot215,ggpplot,ggplot5,ggplot243,ggplot22,ggplot2,R graphics package ggplot2,ggplot2” R package,ggplot2-v3,ggplot241,R “ggplot2,ggplot2for,Ggplot,ggplot245,R package 'ggplot2',ggplot2R,R package ggplot2 package,ggplot.2,RStudio package ggplot2,R package “ggplot2,PCA ggplot2 R,ggplot1,package “ggplot2,R package of ggplot2,ggplot240,R library ‘ggplot2,ggplot2 package for R,ggplot218,ggplot2′ R,ggplot2′,ggplot2 R-package,R-package ‘ggplot2′,ggplot21,ggpllot2,CRAN R package ggplot2,ggplot237,R graphing package ggplot2,R ‘ggplot2,R package: ggplot2,R-ggplot2,ggplot26,Ggplot2®,ggplot2 package,ggplot2”,ggplot226,R Package ggplot2,ggplot2 package R,ggplotfy,R package “ggplot2”,ggplot2bdc,ggplott2,Ggplot2 R,ggplot268,R package ‘ggplot2’,R package ‘ ggplot2,ggplot2 R package,R/ggplot2,R studio ggplot2,ggplot2 package geom_points</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -16942,6 +18320,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>ggpmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -16994,6 +18377,11 @@
         </is>
       </c>
       <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>ggpmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -17050,6 +18438,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>ggpmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -17102,6 +18495,11 @@
         </is>
       </c>
       <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>ggpmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -17158,6 +18556,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>ggpmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -17214,6 +18617,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>R package ggsci</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -17270,6 +18678,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>R package ggsci</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -17326,6 +18739,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>R package ggsci</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -17382,6 +18800,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>R package ggsci</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -17434,6 +18857,11 @@
         </is>
       </c>
       <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>R package ggsci</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -17486,6 +18914,11 @@
         </is>
       </c>
       <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>GitLab CI,GitLab-CI,gitlab</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -17538,6 +18971,11 @@
         </is>
       </c>
       <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>GitLab CI,GitLab-CI,gitlab</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -17590,6 +19028,11 @@
         </is>
       </c>
       <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>GitLab CI,GitLab-CI,gitlab</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -17642,6 +19085,11 @@
         </is>
       </c>
       <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>GitLab CI,GitLab-CI,gitlab</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -17694,6 +19142,11 @@
         </is>
       </c>
       <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>HABE</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -17746,6 +19199,11 @@
         </is>
       </c>
       <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>HABE</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -17798,6 +19256,11 @@
         </is>
       </c>
       <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>httplib</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -17854,6 +19317,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>Insole-C,Insoles,Insolvenz,Insole</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -17906,6 +19374,11 @@
         </is>
       </c>
       <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>Insole-C,Insoles,Insolvenz,Insole</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -17958,6 +19431,11 @@
         </is>
       </c>
       <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>Insole-C,Insoles,Insolvenz,Insole</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -18014,6 +19492,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Insole-C,Insoles,Insolvenz,Insole</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -18066,6 +19549,11 @@
         </is>
       </c>
       <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>R package intePareto</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -18118,6 +19606,11 @@
         </is>
       </c>
       <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>R package intePareto</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -18170,6 +19663,11 @@
         </is>
       </c>
       <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>R package intePareto</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -18226,6 +19724,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>R package intePareto</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -18282,6 +19785,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>R package intePareto</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -18338,6 +19846,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>interest,inter</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -18394,6 +19907,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>R package intsvy</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -18450,6 +19968,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -18506,6 +20029,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -18558,6 +20086,11 @@
         </is>
       </c>
       <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -18614,6 +20147,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -18666,6 +20204,11 @@
         </is>
       </c>
       <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -18722,6 +20265,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -18774,6 +20322,11 @@
         </is>
       </c>
       <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -18826,6 +20379,11 @@
         </is>
       </c>
       <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -18882,6 +20440,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -18938,6 +20501,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>knitr R package,Knitr R,Knitro,R package knitr,knitr R library,R package “knitr”,R knitr,knitr package,knitr,knitr Rnw,knitr R,knitr1,R knitr package,R package “knitr</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -18990,6 +20558,11 @@
         </is>
       </c>
       <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>controller,Controller</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -19046,6 +20619,11 @@
           <t>MATLAB</t>
         </is>
       </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>controller,Controller</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -19102,6 +20680,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>libMesh40,libMesh41</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -19154,6 +20737,11 @@
         </is>
       </c>
       <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>logspline R package,R package “logspline”</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -19210,6 +20798,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>logspline R package,R package “logspline”</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -19262,6 +20855,11 @@
         </is>
       </c>
       <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>logspline R package,R package “logspline”</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -19318,6 +20916,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -19374,6 +20977,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -19430,6 +21038,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -19486,6 +21099,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -19538,6 +21156,11 @@
         </is>
       </c>
       <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -19594,6 +21217,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -19650,6 +21278,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -19706,6 +21339,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -19762,6 +21400,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -19814,6 +21457,11 @@
         </is>
       </c>
       <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>R package lubridate,lubridate R,Lubridate,lubridate R package,lubridate</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -19870,6 +21518,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>LUNARISTM,LUNA,Luna,Lunar DPX,Lunarc,LUNAR DPX,Lunar®</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -19926,6 +21579,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>LUNARISTM,LUNA,Luna,Lunar DPX,Lunarc,LUNAR DPX,Lunar®</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -19982,6 +21640,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>LUNARISTM,LUNA,Luna,Lunar DPX,Lunarc,LUNAR DPX,Lunar®</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -20038,6 +21701,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>MARGINto,R package “margins,R package margins,Marginal,MARGINSPLOT,MARGI,Margin,MARGINAL,MARGIN</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -20090,6 +21758,11 @@
         </is>
       </c>
       <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>MARGINto,R package “margins,R package margins,Marginal,MARGINSPLOT,MARGI,Margin,MARGINAL,MARGIN</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -20146,6 +21819,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>MARGINto,R package “margins,R package margins,Marginal,MARGINSPLOT,MARGI,Margin,MARGINAL,MARGIN</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -20202,6 +21880,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -20258,6 +21941,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -20314,6 +22002,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -20370,6 +22063,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -20426,6 +22124,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -20482,6 +22185,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -20534,6 +22242,11 @@
         </is>
       </c>
       <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -20590,6 +22303,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -20642,6 +22360,11 @@
         </is>
       </c>
       <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -20694,6 +22417,11 @@
         </is>
       </c>
       <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>matplotlib.mlab,matplotlib 2D,MatPlotLib graphics,matplotlib hist2d,Matplotlib/Seaborn,matplotllib,Matplotlib56,Matplotlib.pyplot,matplot,MATPLOTLIB34,Matplotlib2,Matplotlib pyplot,Matplotlib26,MatplotLib,Matplotlib41,MatplotlibLicense,Matplotlib BaseMap,Matplotlib36,matplotlib_ven,Matplotlib,MatPlotlib,matplotlib_venn,MathPlotLib,Matplotlib-package,matplotlib45,Matplotlib package,Matplotlib_venn,matplotlib-venn,matplot-lib,MatPlotLib,matplotlip,matplotlib Python,Matplotlib-venn,matplotlib,Matplotlib-v3,Matplotlib33,Matplotlib63,matplotlib-mlab,Matplotlib-1,Python matplotlib,Matplotlab,Matplot,matplotlib53,Matplotlib (MPL),matplotlib plotting,Matplotlib Library,matplotlib Basemap,matplotlib.pyplot,Matplotlib library,matplotlib42,Matplotlotlib,matplotlib Axes,MatPlotLIB,Python matplotlib library,matplotlib69,Matplotlib Pyplot,python plotting,Matplotlib.mlab,mathplotlib,matplotlib1,matplotlib Python package,Matplotlib5152,matplolib,Matplotlib3,Matplotlib Toolkit,MatPlotLib40,matplotlib package,Matplotlib Basemap,Matplotlib1,Matplotlib basemap,Matplotlib MEC App,Matplotlib Python,Matplotlib©,Python matplotlib package,matplotlib Python library,Matplotlib ScaleBar,Matplolib</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -20750,6 +22478,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>methyl,Methyl,MethylC</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -20806,6 +22539,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>miRTOP,mirt package,miR,MIRT R,MIRTEX,miRTIF,MIRTA,mirt R-package,R mirt package,Mir,R library mirt,miRTRS,MIRTK,MIRTLE,MIRTCR,BMIRT,MIR,mirTar,miRTex,miRTar,miRTil,MIRTE,mirT2,R-package “mirt,miRTAR,Mirth,miRTif,mirTex,R mirt,R package “mirt,“mirt,miRTop,miRTDL,miRTaH,miRTI,mirTAR,mirt R,Mirtar,miRTS,R-package mirt,R-package ‘mirt’,mirt R package,R packages mirt,R package mirt</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -20862,6 +22600,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>miRTOP,mirt package,miR,MIRT R,MIRTEX,miRTIF,MIRTA,mirt R-package,R mirt package,Mir,R library mirt,miRTRS,MIRTK,MIRTLE,MIRTCR,BMIRT,MIR,mirTar,miRTex,miRTar,miRTil,MIRTE,mirT2,R-package “mirt,miRTAR,Mirth,miRTif,mirTex,R mirt,R package “mirt,“mirt,miRTop,miRTDL,miRTaH,miRTI,mirTAR,mirt R,Mirtar,miRTS,R-package mirt,R-package ‘mirt’,mirt R package,R packages mirt,R package mirt</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -20918,6 +22661,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>miRTOP,mirt package,miR,MIRT R,MIRTEX,miRTIF,MIRTA,mirt R-package,R mirt package,Mir,R library mirt,miRTRS,MIRTK,MIRTLE,MIRTCR,BMIRT,MIR,mirTar,miRTex,miRTar,miRTil,MIRTE,mirT2,R-package “mirt,miRTAR,Mirth,miRTif,mirTex,R mirt,R package “mirt,“mirt,miRTop,miRTDL,miRTaH,miRTI,mirTAR,mirt R,Mirtar,miRTS,R-package mirt,R-package ‘mirt’,mirt R package,R packages mirt,R package mirt</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -20974,6 +22722,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>miRTOP,mirt package,miR,MIRT R,MIRTEX,miRTIF,MIRTA,mirt R-package,R mirt package,Mir,R library mirt,miRTRS,MIRTK,MIRTLE,MIRTCR,BMIRT,MIR,mirTar,miRTex,miRTar,miRTil,MIRTE,mirT2,R-package “mirt,miRTAR,Mirth,miRTif,mirTex,R mirt,R package “mirt,“mirt,miRTop,miRTDL,miRTaH,miRTI,mirTAR,mirt R,Mirtar,miRTS,R-package mirt,R-package ‘mirt’,mirt R package,R packages mirt,R package mirt</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -21030,6 +22783,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>miRTOP,mirt package,miR,MIRT R,MIRTEX,miRTIF,MIRTA,mirt R-package,R mirt package,Mir,R library mirt,miRTRS,MIRTK,MIRTLE,MIRTCR,BMIRT,MIR,mirTar,miRTex,miRTar,miRTil,MIRTE,mirT2,R-package “mirt,miRTAR,Mirth,miRTif,mirTex,R mirt,R package “mirt,“mirt,miRTop,miRTDL,miRTaH,miRTI,mirTAR,mirt R,Mirtar,miRTS,R-package mirt,R-package ‘mirt’,mirt R package,R packages mirt,R package mirt</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -21082,6 +22840,11 @@
         </is>
       </c>
       <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>mixKernels</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -21134,6 +22897,11 @@
         </is>
       </c>
       <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>mixKernels</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -21186,6 +22954,11 @@
         </is>
       </c>
       <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>mixKernels</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -21242,6 +23015,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>mixKernels</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -21298,6 +23076,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>mixKernels</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -21350,6 +23133,7 @@
         </is>
       </c>
       <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -21402,6 +23186,7 @@
         </is>
       </c>
       <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -21454,6 +23239,7 @@
         </is>
       </c>
       <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -21506,6 +23292,11 @@
         </is>
       </c>
       <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>ModestR®,ModesLab,mode,gmodes,Modest,MODE,kmodes,MODESTR®,Modetest,ModestR,Modeshape,ODES,MODEST,MODESE,modest,MODESLAB,Mode,MODESA,modeest</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -21562,6 +23353,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>ModestR®,ModesLab,mode,gmodes,Modest,MODE,kmodes,MODESTR®,Modetest,ModestR,Modeshape,ODES,MODEST,MODESE,modest,MODESLAB,Mode,MODESA,modeest</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -21618,6 +23414,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>Mokken’,R mokken package,“mokken,“Mokken”,R package ‘mokken’,mokken”,R package mokken,R package “mokken”,R “mokken”,R-package ‘mokken’,mokken package</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -21674,6 +23475,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>Mokken’,R mokken package,“mokken,“Mokken”,R package ‘mokken’,mokken”,R package mokken,R package “mokken”,R “mokken”,R-package ‘mokken’,mokken package</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -21726,6 +23532,11 @@
         </is>
       </c>
       <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Mokken’,R mokken package,“mokken,“Mokken”,R package ‘mokken’,mokken”,R package mokken,R package “mokken”,R “mokken”,R-package ‘mokken’,mokken package</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -21782,6 +23593,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>Mokken’,R mokken package,“mokken,“Mokken”,R package ‘mokken’,mokken”,R package mokken,R package “mokken”,R “mokken”,R-package ‘mokken’,mokken package</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -21838,6 +23654,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Mokken’,R mokken package,“mokken,“Mokken”,R package ‘mokken’,mokken”,R package mokken,R package “mokken”,R “mokken”,R-package ‘mokken’,mokken package</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -21890,6 +23711,11 @@
         </is>
       </c>
       <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>morda,mor</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -21946,6 +23772,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>MPI4Py,mpi4py Python,MPI4PY</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -22002,6 +23833,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>MPI4Py,mpi4py Python,MPI4PY</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -22054,6 +23890,11 @@
         </is>
       </c>
       <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>MPI4Py,mpi4py Python,MPI4PY</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -22110,6 +23951,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>MPI4Py,mpi4py Python,MPI4PY</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -22166,6 +24012,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>MPI4Py,mpi4py Python,MPI4PY</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -22218,6 +24069,11 @@
         </is>
       </c>
       <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>rMLM,“mrMLM,R package mrMLM,mrMLM R,R package “mrMLM”,mrMLM.GUI,R package “mrMLM,mrMLM R package,MRML,RMLM</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -22270,6 +24126,11 @@
         </is>
       </c>
       <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>rMLM,“mrMLM,R package mrMLM,mrMLM R,R package “mrMLM”,mrMLM.GUI,R package “mrMLM,mrMLM R package,MRML,RMLM</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -22322,6 +24183,11 @@
         </is>
       </c>
       <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>rMLM,“mrMLM,R package mrMLM,mrMLM R,R package “mrMLM”,mrMLM.GUI,R package “mrMLM,mrMLM R package,MRML,RMLM</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -22374,6 +24240,11 @@
         </is>
       </c>
       <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>rMLM,“mrMLM,R package mrMLM,mrMLM R,R package “mrMLM”,mrMLM.GUI,R package “mrMLM,mrMLM R package,MRML,RMLM</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -22430,6 +24301,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>rMLM,“mrMLM,R package mrMLM,mrMLM R,R package “mrMLM”,mrMLM.GUI,R package “mrMLM,mrMLM R package,MRML,RMLM</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -22486,6 +24362,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>NDLP,NDLA</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -22542,6 +24423,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>NDLP,NDLA</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -22598,6 +24484,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>NDLP,NDLA</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -22654,6 +24545,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>ngCGH python</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -22706,6 +24602,11 @@
         </is>
       </c>
       <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>ngCGH python</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -22758,6 +24659,11 @@
         </is>
       </c>
       <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>ngCGH python</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -22810,6 +24716,11 @@
         </is>
       </c>
       <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>ngCGH python</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -22866,6 +24777,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>ngCGH python</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -22918,6 +24834,11 @@
         </is>
       </c>
       <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>nlsi,LSIC</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -22970,6 +24891,11 @@
         </is>
       </c>
       <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>nlsi,LSIC</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -23026,6 +24952,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>Nold</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -23082,6 +25013,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>Nold</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -23138,6 +25074,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>Nold</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -23194,6 +25135,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -23246,6 +25192,11 @@
         </is>
       </c>
       <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -23302,6 +25253,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -23354,6 +25310,11 @@
         </is>
       </c>
       <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -23406,6 +25367,11 @@
         </is>
       </c>
       <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -23462,6 +25428,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -23518,6 +25489,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -23574,6 +25550,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -23630,6 +25611,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -23686,6 +25672,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>numpydoc,NumPy/C,NumPy-1,numpy1,NumPy for,numpy15,numpy39,numpy Python package,NumPy3,Numpy≥1,NumPyDoc,numpy Python library,NumP,NUMP,numpy.fft,Numpy3,NumPy1,numpy-1,NumPy8,NumPy4344,Numpy1,NumPy V,Numpy©,numpy67,numpy®,Gnumpy,Numpy API,numpyc,Python numpy,numpy python,numpy,numpy python package</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -23738,6 +25729,11 @@
         </is>
       </c>
       <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>ONN</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -23790,6 +25786,11 @@
         </is>
       </c>
       <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>Openrouteservice,Open Route Services,OnRouteService,openrouteservice</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -23842,6 +25843,11 @@
         </is>
       </c>
       <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>Openrouteservice,Open Route Services,OnRouteService,openrouteservice</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -23898,6 +25904,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -23954,6 +25961,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>R package “osmdata”,R package osmdata</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -24006,6 +26018,11 @@
         </is>
       </c>
       <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>R package “osmdata”,R package osmdata</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -24062,6 +26079,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -24114,6 +26136,11 @@
         </is>
       </c>
       <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -24170,6 +26197,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -24226,6 +26258,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -24282,6 +26319,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>PANDAseq,PANDA GRN,Pandas”,panda: pipeline for analyzing brain diffusion images,PANDAseq2,ANDA,PANDA+,PANDASEQ,Pandat,pandaCam,Panda3D,PANDA-T1ρ,Pandda,PANDAR,PANDAS,pandas,PANDA),Pandas4,PandaT,PANDA seq,pandaseq,pandaR,Pandanus,PandaX-II,panda,pandas®,PANDAT,Pandaset,Pandaæsim,Pandas32,pandas0,PANDANA,PANDAse,PANDA (Pipeline for Analyzing braiN Diffusion imAges),PANDA: a pipeline tool for diffusion MRI,PAND,PANDABox,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDASeq2,PandaS,PandaEPL,PANDASeq,PANDAseq),rpanda,pipeline for analyzing brain diffusion images,Pandat®,Mpanda,RPANDA,PANDAs,Panda-seq,PandaSeq2,Pandas,PandaSeq,iPANDA,PANDAbox,panda-tool,Pandas-0,Pandas©,Pipeline for Analyzing braiN Diffusion imAges,pandaSeq,Pandaseq,PANDA: Pipeline for Analyzing braiN Diffusion imAges,Pand,PandaX,pandda,PANDAA,iPanda,Panda3d,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -24338,6 +26380,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -24394,6 +26441,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -24446,6 +26498,11 @@
         </is>
       </c>
       <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -24502,6 +26559,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -24558,6 +26620,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -24610,6 +26677,11 @@
         </is>
       </c>
       <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -24662,6 +26734,11 @@
         </is>
       </c>
       <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -24718,6 +26795,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -24774,6 +26856,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -24830,6 +26917,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -24886,6 +26978,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -24942,6 +27039,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -24998,6 +27100,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -25054,6 +27161,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -25110,6 +27222,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -25162,6 +27279,11 @@
         </is>
       </c>
       <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>PANDAseq,Pandas”,panda: pipeline for analyzing brain diffusion images,pandastable,PANDAseq2,PANDAseq33,pandas Python package,PANDA+,Panda,Python pandas package,Pandat,python pandas,PANDASEQ,PANDAseq28,Pandda,PANDAR,pandas,PANDA),Pandas4,PandaT,Pandas qcut,pandas Python library,pandaseq,pandaR,panda,PANDAseq57,pandas®,PANDAT,Pandaset,ANDAS,Pandas32,Python pandas,pandas0,PANDAse,PandaSeq32,PAND,Pandas9,PandaR,panda: a pipeline tool for diffusion mri,PANDDA,PANDAseq38,PANDASeq36,PANDASeq2,PandaS,PANDAseq42,PANDASeq,PANDAseq),pipeline for analyzing brain diffusion images,PANDAs,PandaSeq2,Pandas,PandaSeq,PANDA,panda-tool,Pandas-0,Pandas©,PANDAs PDA,Python package pandas,Pandaseq,Pand,PandaX,pandda,pandas Python,PandasTools,PANDAA,python pandas scripts,PANDAS,PANDAs PtDA,panda (pipeline for analyzing brain diffusion images)</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -25218,6 +27340,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>R package paramtest</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -25274,6 +27401,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>R package paramtest</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -25330,6 +27462,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>R package paramtest</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -25382,6 +27519,11 @@
         </is>
       </c>
       <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>Patchwork.plot,patch,PATCH,Patchwork,Patch,PatchworkCG,Patchwork ASCNA,patchwork</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -25438,6 +27580,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>Patchwork.plot,patch,PATCH,Patchwork,Patch,PatchworkCG,Patchwork ASCNA,patchwork</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -25494,6 +27641,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>Patchwork.plot,patch,PATCH,Patchwork,Patch,PatchworkCG,Patchwork ASCNA,patchwork</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -25550,6 +27702,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>Patchwork.plot,patch,PATCH,Patchwork,Patch,PatchworkCG,Patchwork ASCNA,patchwork</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -25606,6 +27763,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>Patchwork.plot,patch,PATCH,Patchwork,Patch,PatchworkCG,Patchwork ASCNA,patchwork</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -25662,6 +27824,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -25714,6 +27877,11 @@
         </is>
       </c>
       <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>phylip-3,(PHYLIP),Phylip,Phylipand,PHYLIP-3,Phyl,PHYLIPv3,Phylip3,PHYLIPS,phylip’,phylip MSA,PHYLIP60,Phylip Ver,RPhylip,phylip_var,phylip -T,Phylip Plot,Phylip-69,PHYLIP3,rphylip,phylips,Phylip2Tree,Phylip Tree,Phylip_REF,PHYLIP71,Phylip‐3,PHYLIP-ML,phylogeny inference package,PHYLIS,Phyllip,PHYLIP),Rphylip,PHYLIB,PHYL,Phylip-3,PHYLIP80,Phylip+NJ,phyl,PHYLIP52,hylip,Phylip),PhyliP,Phylip NJ,PHYLIP (ML),PHYLIP51,Phylip56,phylip3.6,Phylip4,PHYLIP55,PHYLIN,phylip),phylip -m,phylip,PHYLIP suit,PHYLogeny Inference Package,phylin,2PHYLIP,phylipFasta,PHYLIP24,phylipout,Phylips,Phylip-v3,PHYLIP pars,PHYLIP3.65,PHYLIP40,PHYLIPNEW,phylip.tree</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -25766,6 +27934,11 @@
         </is>
       </c>
       <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>phylip-3,(PHYLIP),Phylip,Phylipand,PHYLIP-3,Phyl,PHYLIPv3,Phylip3,PHYLIPS,phylip’,phylip MSA,PHYLIP60,Phylip Ver,RPhylip,phylip_var,phylip -T,Phylip Plot,Phylip-69,PHYLIP3,rphylip,phylips,Phylip2Tree,Phylip Tree,Phylip_REF,PHYLIP71,Phylip‐3,PHYLIP-ML,phylogeny inference package,PHYLIS,Phyllip,PHYLIP),Rphylip,PHYLIB,PHYL,Phylip-3,PHYLIP80,Phylip+NJ,phyl,PHYLIP52,hylip,Phylip),PhyliP,Phylip NJ,PHYLIP (ML),PHYLIP51,Phylip56,phylip3.6,Phylip4,PHYLIP55,PHYLIN,phylip),phylip -m,phylip,PHYLIP suit,PHYLogeny Inference Package,phylin,2PHYLIP,phylipFasta,PHYLIP24,phylipout,Phylips,Phylip-v3,PHYLIP pars,PHYLIP3.65,PHYLIP40,PHYLIPNEW,phylip.tree</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -25818,6 +27991,11 @@
         </is>
       </c>
       <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>phylip-3,(PHYLIP),Phylip,Phylipand,PHYLIP-3,Phyl,PHYLIPv3,Phylip3,PHYLIPS,phylip’,phylip MSA,PHYLIP60,Phylip Ver,RPhylip,phylip_var,phylip -T,Phylip Plot,Phylip-69,PHYLIP3,rphylip,phylips,Phylip2Tree,Phylip Tree,Phylip_REF,PHYLIP71,Phylip‐3,PHYLIP-ML,phylogeny inference package,PHYLIS,Phyllip,PHYLIP),Rphylip,PHYLIB,PHYL,Phylip-3,PHYLIP80,Phylip+NJ,phyl,PHYLIP52,hylip,Phylip),PhyliP,Phylip NJ,PHYLIP (ML),PHYLIP51,Phylip56,phylip3.6,Phylip4,PHYLIP55,PHYLIN,phylip),phylip -m,phylip,PHYLIP suit,PHYLogeny Inference Package,phylin,2PHYLIP,phylipFasta,PHYLIP24,phylipout,Phylips,Phylip-v3,PHYLIP pars,PHYLIP3.65,PHYLIP40,PHYLIPNEW,phylip.tree</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -25870,6 +28048,11 @@
         </is>
       </c>
       <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>phylip-3,(PHYLIP),Phylip,Phylipand,PHYLIP-3,Phyl,PHYLIPv3,Phylip3,PHYLIPS,phylip’,phylip MSA,PHYLIP60,Phylip Ver,RPhylip,phylip_var,phylip -T,Phylip Plot,Phylip-69,PHYLIP3,rphylip,phylips,Phylip2Tree,Phylip Tree,Phylip_REF,PHYLIP71,Phylip‐3,PHYLIP-ML,phylogeny inference package,PHYLIS,Phyllip,PHYLIP),Rphylip,PHYLIB,PHYL,Phylip-3,PHYLIP80,Phylip+NJ,phyl,PHYLIP52,hylip,Phylip),PhyliP,Phylip NJ,PHYLIP (ML),PHYLIP51,Phylip56,phylip3.6,Phylip4,PHYLIP55,PHYLIN,phylip),phylip -m,phylip,PHYLIP suit,PHYLogeny Inference Package,phylin,2PHYLIP,phylipFasta,PHYLIP24,phylipout,Phylips,Phylip-v3,PHYLIP pars,PHYLIP3.65,PHYLIP40,PHYLIPNEW,phylip.tree</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -25926,6 +28109,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>phylip-3,(PHYLIP),Phylip,Phylipand,PHYLIP-3,Phyl,PHYLIPv3,Phylip3,PHYLIPS,phylip’,phylip MSA,PHYLIP60,Phylip Ver,RPhylip,phylip_var,phylip -T,Phylip Plot,Phylip-69,PHYLIP3,rphylip,phylips,Phylip2Tree,Phylip Tree,Phylip_REF,PHYLIP71,Phylip‐3,PHYLIP-ML,phylogeny inference package,PHYLIS,Phyllip,PHYLIP),Rphylip,PHYLIB,PHYL,Phylip-3,PHYLIP80,Phylip+NJ,phyl,PHYLIP52,hylip,Phylip),PhyliP,Phylip NJ,PHYLIP (ML),PHYLIP51,Phylip56,phylip3.6,Phylip4,PHYLIP55,PHYLIN,phylip),phylip -m,phylip,PHYLIP suit,PHYLogeny Inference Package,phylin,2PHYLIP,phylipFasta,PHYLIP24,phylipout,Phylips,Phylip-v3,PHYLIP pars,PHYLIP3.65,PHYLIP40,PHYLIPNEW,phylip.tree</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -25978,6 +28166,11 @@
         </is>
       </c>
       <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>R package powerGWASinteraction</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -26030,6 +28223,11 @@
         </is>
       </c>
       <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>psych package for R,PsychicVR,R package "psych",psych R package,PSYCHO,PsychSim,Psych Map,PsychInfo,Psych R,PSYCHLOPs,Psych MD,PsychNet,psych R-package,PsychHID,Psychpy,PsychCorp,PsychMAP,Psych Net,psyche,r-package psych,psych”,Psychnet,Psychopy,PsychPy,Psychorus,R-package psych,psych Package,R psych,PsychLog,psych r-package,Psychenet,iPSYCH,psych,PsychoJS,package psych,R Software Packages psych,R psych package36,Psychosis,Package psych,PSYCHInfo,PSYCHLAB,Psychinfo,psych package,psychmeta,Psych*,PSYCHIC,PsychCare,PsychSci,Psyc,iPsych,Psychdata,R psych library,Psycho,Psychlops,NPSYCH,R package (psych,R library psych,PsychMap,PsychPark,PsychoPy3,PsychGene,PSYCHLOP,R-package “psych,R package: psych,psychenet,R language psych,psych’,PsychoPy,PsychCore,psychache,psycho,PsychSIGN,psychopy,Psychopy2,R library ‘psych’,PsychLab,psych R library,psych’ R package,R packages psych,Psychmeta,R package ‘psych,psych Package in R,PSYCHLOPS,R ‘psych’ package,R “psych,Psych-soc,PsychoPy2,Package “psych” - R,R project psych package,psych R,PsychRNN,R package,psych,PsychoPy1,Psychotic,Psychlab,Psych-DS,“psych,PSYCHinfo,PsychData,psychoEQ,R package “psych,Psychache,PsychChip,PSYCHE,PsychLit,psychInfo,PSYC,R ‘psych’,Psyche,PsychBITE,R “psych”,PsychTest,PsychoAge,PsychSocs,R ‘psych,Psych Soc,psychlit,PsychLIT,Psychid,PsychoFit,R-package ‘psych’,psych r,Psychopy3,RStudio psych package,PsychINfo,R package ‘psych’,Psychopy®,PsychINFO,Psychlit,R-package “psych”,PsychE,PsychTr,PsychINFo,r package psych,PsychoSig,R package “psych”,R package psych,R psych package,PsychoTSH,PsychNET</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -26086,6 +28284,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>psych package for R,PsychicVR,R package "psych",psych R package,PSYCHO,PsychSim,Psych Map,PsychInfo,Psych R,PSYCHLOPs,Psych MD,PsychNet,psych R-package,PsychHID,Psychpy,PsychCorp,PsychMAP,Psych Net,psyche,r-package psych,psych”,Psychnet,Psychopy,PsychPy,Psychorus,R-package psych,psych Package,R psych,PsychLog,psych r-package,Psychenet,iPSYCH,psych,PsychoJS,package psych,R Software Packages psych,R psych package36,Psychosis,Package psych,PSYCHInfo,PSYCHLAB,Psychinfo,psych package,psychmeta,Psych*,PSYCHIC,PsychCare,PsychSci,Psyc,iPsych,Psychdata,R psych library,Psycho,Psychlops,NPSYCH,R package (psych,R library psych,PsychMap,PsychPark,PsychoPy3,PsychGene,PSYCHLOP,R-package “psych,R package: psych,psychenet,R language psych,psych’,PsychoPy,PsychCore,psychache,psycho,PsychSIGN,psychopy,Psychopy2,R library ‘psych’,PsychLab,psych R library,psych’ R package,R packages psych,Psychmeta,R package ‘psych,psych Package in R,PSYCHLOPS,R ‘psych’ package,R “psych,Psych-soc,PsychoPy2,Package “psych” - R,R project psych package,psych R,PsychRNN,R package,psych,PsychoPy1,Psychotic,Psychlab,Psych-DS,“psych,PSYCHinfo,PsychData,psychoEQ,R package “psych,Psychache,PsychChip,PSYCHE,PsychLit,psychInfo,PSYC,R ‘psych’,Psyche,PsychBITE,R “psych”,PsychTest,PsychoAge,PsychSocs,R ‘psych,Psych Soc,psychlit,PsychLIT,Psychid,PsychoFit,R-package ‘psych’,psych r,Psychopy3,RStudio psych package,PsychINfo,R package ‘psych’,Psychopy®,PsychINFO,Psychlit,R-package “psych”,PsychE,PsychTr,PsychINFo,r package psych,PsychoSig,R package “psych”,R package psych,R psych package,PsychoTSH,PsychNET</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -26142,6 +28345,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>psych package for R,PsychicVR,R package "psych",psych R package,PSYCHO,PsychSim,Psych Map,PsychInfo,Psych R,PSYCHLOPs,Psych MD,PsychNet,psych R-package,PsychHID,Psychpy,PsychCorp,PsychMAP,Psych Net,psyche,r-package psych,psych”,Psychnet,Psychopy,PsychPy,Psychorus,R-package psych,psych Package,R psych,PsychLog,psych r-package,Psychenet,iPSYCH,psych,PsychoJS,package psych,R Software Packages psych,R psych package36,Psychosis,Package psych,PSYCHInfo,PSYCHLAB,Psychinfo,psych package,psychmeta,Psych*,PSYCHIC,PsychCare,PsychSci,Psyc,iPsych,Psychdata,R psych library,Psycho,Psychlops,NPSYCH,R package (psych,R library psych,PsychMap,PsychPark,PsychoPy3,PsychGene,PSYCHLOP,R-package “psych,R package: psych,psychenet,R language psych,psych’,PsychoPy,PsychCore,psychache,psycho,PsychSIGN,psychopy,Psychopy2,R library ‘psych’,PsychLab,psych R library,psych’ R package,R packages psych,Psychmeta,R package ‘psych,psych Package in R,PSYCHLOPS,R ‘psych’ package,R “psych,Psych-soc,PsychoPy2,Package “psych” - R,R project psych package,psych R,PsychRNN,R package,psych,PsychoPy1,Psychotic,Psychlab,Psych-DS,“psych,PSYCHinfo,PsychData,psychoEQ,R package “psych,Psychache,PsychChip,PSYCHE,PsychLit,psychInfo,PSYC,R ‘psych’,Psyche,PsychBITE,R “psych”,PsychTest,PsychoAge,PsychSocs,R ‘psych,Psych Soc,psychlit,PsychLIT,Psychid,PsychoFit,R-package ‘psych’,psych r,Psychopy3,RStudio psych package,PsychINfo,R package ‘psych’,Psychopy®,PsychINFO,Psychlit,R-package “psych”,PsychE,PsychTr,PsychINFo,r package psych,PsychoSig,R package “psych”,R package psych,R psych package,PsychoTSH,PsychNET</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -26198,6 +28406,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>psych package for R,PsychicVR,R package "psych",psych R package,PSYCHO,PsychSim,Psych Map,PsychInfo,Psych R,PSYCHLOPs,Psych MD,PsychNet,psych R-package,PsychHID,Psychpy,PsychCorp,PsychMAP,Psych Net,psyche,r-package psych,psych”,Psychnet,Psychopy,PsychPy,Psychorus,R-package psych,psych Package,R psych,PsychLog,psych r-package,Psychenet,iPSYCH,psych,PsychoJS,package psych,R Software Packages psych,R psych package36,Psychosis,Package psych,PSYCHInfo,PSYCHLAB,Psychinfo,psych package,psychmeta,Psych*,PSYCHIC,PsychCare,PsychSci,Psyc,iPsych,Psychdata,R psych library,Psycho,Psychlops,NPSYCH,R package (psych,R library psych,PsychMap,PsychPark,PsychoPy3,PsychGene,PSYCHLOP,R-package “psych,R package: psych,psychenet,R language psych,psych’,PsychoPy,PsychCore,psychache,psycho,PsychSIGN,psychopy,Psychopy2,R library ‘psych’,PsychLab,psych R library,psych’ R package,R packages psych,Psychmeta,R package ‘psych,psych Package in R,PSYCHLOPS,R ‘psych’ package,R “psych,Psych-soc,PsychoPy2,Package “psych” - R,R project psych package,psych R,PsychRNN,R package,psych,PsychoPy1,Psychotic,Psychlab,Psych-DS,“psych,PSYCHinfo,PsychData,psychoEQ,R package “psych,Psychache,PsychChip,PSYCHE,PsychLit,psychInfo,PSYC,R ‘psych’,Psyche,PsychBITE,R “psych”,PsychTest,PsychoAge,PsychSocs,R ‘psych,Psych Soc,psychlit,PsychLIT,Psychid,PsychoFit,R-package ‘psych’,psych r,Psychopy3,RStudio psych package,PsychINfo,R package ‘psych’,Psychopy®,PsychINFO,Psychlit,R-package “psych”,PsychE,PsychTr,PsychINFo,r package psych,PsychoSig,R package “psych”,R package psych,R psych package,PsychoTSH,PsychNET</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -26250,6 +28463,11 @@
         </is>
       </c>
       <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>psych package for R,PsychicVR,R package "psych",psych R package,PSYCHO,PsychSim,Psych Map,PsychInfo,Psych R,PSYCHLOPs,Psych MD,PsychNet,psych R-package,PsychHID,Psychpy,PsychCorp,PsychMAP,Psych Net,psyche,r-package psych,psych”,Psychnet,Psychopy,PsychPy,Psychorus,R-package psych,psych Package,R psych,PsychLog,psych r-package,Psychenet,iPSYCH,psych,PsychoJS,package psych,R Software Packages psych,R psych package36,Psychosis,Package psych,PSYCHInfo,PSYCHLAB,Psychinfo,psych package,psychmeta,Psych*,PSYCHIC,PsychCare,PsychSci,Psyc,iPsych,Psychdata,R psych library,Psycho,Psychlops,NPSYCH,R package (psych,R library psych,PsychMap,PsychPark,PsychoPy3,PsychGene,PSYCHLOP,R-package “psych,R package: psych,psychenet,R language psych,psych’,PsychoPy,PsychCore,psychache,psycho,PsychSIGN,psychopy,Psychopy2,R library ‘psych’,PsychLab,psych R library,psych’ R package,R packages psych,Psychmeta,R package ‘psych,psych Package in R,PSYCHLOPS,R ‘psych’ package,R “psych,Psych-soc,PsychoPy2,Package “psych” - R,R project psych package,psych R,PsychRNN,R package,psych,PsychoPy1,Psychotic,Psychlab,Psych-DS,“psych,PSYCHinfo,PsychData,psychoEQ,R package “psych,Psychache,PsychChip,PSYCHE,PsychLit,psychInfo,PSYC,R ‘psych’,Psyche,PsychBITE,R “psych”,PsychTest,PsychoAge,PsychSocs,R ‘psych,Psych Soc,psychlit,PsychLIT,Psychid,PsychoFit,R-package ‘psych’,psych r,Psychopy3,RStudio psych package,PsychINfo,R package ‘psych’,Psychopy®,PsychINFO,Psychlit,R-package “psych”,PsychE,PsychTr,PsychINFo,r package psych,PsychoSig,R package “psych”,R package psych,R psych package,PsychoTSH,PsychNET</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -26306,6 +28524,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>R package ‘PVR’,PVRI,R package “PVR,R-package PVR</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -26362,6 +28585,7 @@
           <t>MATLAB</t>
         </is>
       </c>
+      <c r="M480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -26414,6 +28638,7 @@
         </is>
       </c>
       <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -26466,6 +28691,11 @@
         </is>
       </c>
       <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>magnitude</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -26518,6 +28748,11 @@
         </is>
       </c>
       <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>PyPhy,Pyphysio,Physio,pyphy,pyphysio,Pyphy</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -26574,6 +28809,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>PyPhy,Pyphysio,Physio,pyphy,pyphysio,Pyphy</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -26626,6 +28866,11 @@
         </is>
       </c>
       <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>PyPhy,Pyphysio,Physio,pyphy,pyphysio,Pyphy</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -26682,6 +28927,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>PyPhy,Pyphysio,Physio,pyphy,pyphysio,Pyphy</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -26738,6 +28988,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>PyPhy,Pyphysio,Physio,pyphy,pyphysio,Pyphy</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -26790,6 +29045,7 @@
         </is>
       </c>
       <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -26842,6 +29098,11 @@
         </is>
       </c>
       <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -26894,6 +29155,11 @@
         </is>
       </c>
       <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -26946,6 +29212,11 @@
         </is>
       </c>
       <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -26998,6 +29269,11 @@
         </is>
       </c>
       <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -27050,6 +29326,11 @@
         </is>
       </c>
       <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -27102,6 +29383,11 @@
         </is>
       </c>
       <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -27158,6 +29444,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -27210,6 +29501,11 @@
         </is>
       </c>
       <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -27262,6 +29558,11 @@
         </is>
       </c>
       <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -27314,6 +29615,11 @@
         </is>
       </c>
       <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>pytorch,Pytorch Adam,PytorchVideo,PyTorch C,PyTorch-NLP,PyTorch2,pytorch1,PyTorchVideo,PyTorch1,GPyTorch,PyTorch5,Pytorch-GPU,PyTorch3D,PyTorch-1,PyTorch-Kaldi,PyTorch DL,pytorch-1,Pytorch3D,Pytorch0,Pytorch-0,Pytorch1,PyTorch0,PyTorch GPU</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -27366,6 +29672,7 @@
         </is>
       </c>
       <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -27418,6 +29725,11 @@
         </is>
       </c>
       <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>BayesianOptimization,rBayesianoptimization,R package “rBayesianOptimization”,rBayesianOptimization</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -27474,6 +29786,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>BayesianOptimization,rBayesianoptimization,R package “rBayesianOptimization”,rBayesianOptimization</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -27530,6 +29847,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>BayesianOptimization,rBayesianoptimization,R package “rBayesianOptimization”,rBayesianOptimization</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -27582,6 +29904,11 @@
         </is>
       </c>
       <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>BayesianOptimization,rBayesianoptimization,R package “rBayesianOptimization”,rBayesianOptimization</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -27634,6 +29961,11 @@
         </is>
       </c>
       <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>BayesianOptimization,rBayesianoptimization,R package “rBayesianOptimization”,rBayesianOptimization</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -27690,6 +30022,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>ClinicalCodes,rClinicalCodes R</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -27746,6 +30083,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>LiDAR</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -27802,6 +30144,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -27858,6 +30205,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -27914,6 +30266,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -27970,6 +30327,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -28026,6 +30388,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -28082,6 +30449,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -28134,6 +30506,11 @@
         </is>
       </c>
       <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -28190,6 +30567,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -28246,6 +30628,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -28298,6 +30685,11 @@
         </is>
       </c>
       <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>readr package,R-package readr,Read,R packages readr,read,R package readr,readr R package,readrr</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -28350,6 +30742,11 @@
         </is>
       </c>
       <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>relaimpo R,relaimpo [R],Relaimpo,R package ‘relaimpo,relaimpo R package,R package 'relaimpo',R package ‘relaimpo’,R “relaimpo,r package relaimpo,R library relaimpo,relaimpo,relaimpo package,R package relaimpo,R package “relaimpo,R package “relaimpo”,R-package relaimpo,relaimp</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -28402,6 +30799,11 @@
         </is>
       </c>
       <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>relaimpo R,relaimpo [R],Relaimpo,R package ‘relaimpo,relaimpo R package,R package 'relaimpo',R package ‘relaimpo’,R “relaimpo,r package relaimpo,R library relaimpo,relaimpo,relaimpo package,R package relaimpo,R package “relaimpo,R package “relaimpo”,R-package relaimpo,relaimp</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -28458,6 +30860,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>relaimpo R,relaimpo [R],Relaimpo,R package ‘relaimpo,relaimpo R package,R package 'relaimpo',R package ‘relaimpo’,R “relaimpo,r package relaimpo,R library relaimpo,relaimpo,relaimpo package,R package relaimpo,R package “relaimpo,R package “relaimpo”,R-package relaimpo,relaimp</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -28510,6 +30917,11 @@
         </is>
       </c>
       <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>relaimpo R,relaimpo [R],Relaimpo,R package ‘relaimpo,relaimpo R package,R package 'relaimpo',R package ‘relaimpo’,R “relaimpo,r package relaimpo,R library relaimpo,relaimpo,relaimpo package,R package relaimpo,R package “relaimpo,R package “relaimpo”,R-package relaimpo,relaimp</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -28562,6 +30974,11 @@
         </is>
       </c>
       <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>relaimpo R,relaimpo [R],Relaimpo,R package ‘relaimpo,relaimpo R package,R package 'relaimpo',R package ‘relaimpo’,R “relaimpo,r package relaimpo,R library relaimpo,relaimpo,relaimpo package,R package relaimpo,R package “relaimpo,R package “relaimpo”,R-package relaimpo,relaimp</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -28614,6 +31031,11 @@
         </is>
       </c>
       <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -28670,6 +31092,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -28726,6 +31153,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -28782,6 +31214,11 @@
           <t>JavaScript</t>
         </is>
       </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -28838,6 +31275,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -28894,6 +31336,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -28946,6 +31393,11 @@
         </is>
       </c>
       <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>Request a,Requests,requests,Request,python requests library,grequests,CRequest,RequestWS</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -28998,6 +31450,7 @@
         </is>
       </c>
       <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -29050,6 +31503,7 @@
         </is>
       </c>
       <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -29106,6 +31560,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -29162,6 +31617,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -29214,6 +31674,11 @@
         </is>
       </c>
       <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -29270,6 +31735,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -29326,6 +31796,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -29378,6 +31853,11 @@
         </is>
       </c>
       <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -29434,6 +31914,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -29482,6 +31967,11 @@
         </is>
       </c>
       <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -29538,6 +32028,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -29594,6 +32089,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -29650,6 +32150,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>Rmark,Markdown,rMarkdown,MarkDown,RMarkDown,rmarkdown,RMark,Rmarkdown,R package rmarkdown,R-package rmarkdown,RMarkdown,R/RMarkdown,markdown</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -29702,6 +32207,11 @@
         </is>
       </c>
       <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>R package scCATCH</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -29754,6 +32264,11 @@
         </is>
       </c>
       <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>R package scCATCH</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -29806,6 +32321,11 @@
         </is>
       </c>
       <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>R package scCATCH</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -29858,6 +32378,11 @@
         </is>
       </c>
       <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>R package scCATCH</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -29910,6 +32435,11 @@
         </is>
       </c>
       <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>R package scCATCH</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -29962,6 +32492,11 @@
         </is>
       </c>
       <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -30018,6 +32553,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -30074,6 +32614,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -30126,6 +32671,11 @@
         </is>
       </c>
       <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -30182,6 +32732,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -30238,6 +32793,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -30294,6 +32854,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -30346,6 +32911,11 @@
         </is>
       </c>
       <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -30402,6 +32972,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -30454,6 +33029,11 @@
         </is>
       </c>
       <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>Scikit-learn (Machine,scikit-learn python library,Scikit_learn,scikit-learn2,Scikit-learn Package,scikit-learn Python package for,Scikit-learn library,scikit_learn,scikit-learn Developers,scikit-Learn,scikit-learn Python package,Scikit-Learn Python,Scikit-learn (Pedregosa,Scikit-Learn®,SCikit-learn,scikit-learn API,sciki-learn,scikit-learn8,scikit -learn,Scikit–Learn,scikit-learn R package,Scikit-learn Toolbox,scikit-learn CART,scikitslearn,Scitkit-Learn,Scikit-learn Python,Scikit–learn,Scikit-Learn24,SciKitLearn,scikit-learn Python Library,scikit.learn,scikit-learn Python package2223,SciKit learn,Python scikit-learn,Scikit‐Learn,scikit-learn,Scikit-learn31,Scikit-learn0,Scikits-learn,Scikit-Learn.FastICA,scikit-learn: machine learning in python,Scikit-learn Library,scikit-lear,Sciket-Learn,Scikit-learn,Python scikit-learn library,SciKit-Learn,scikit - learn,Python library scikit-learn,Sciket-learn,scikit-learn Python library package,Scikit-Learn/manifold,Scikit learn,Scikt-learn,Scikit Learn5,Scikit‐learn,scikit-learn Python,Scikit-learnv,scikitlearn,scikit‐learn,scikit-learning,Python scikit-learn package,2scikit-learn,scikit-learn package,Scikit-learn”,scikit-learn81,Scikit-learn Pedregosa,SCiKit-learn,scikit-learn Python library,Scikit-Learn Library,Scikit-lean,Scikit-Learn,scikit-learn estimator,scikit-learn Pedregosa,sci-kit-learn,Scikit-Scikit-learn,SciKit Learn,Scikit-learn python,SciKit-Learn library,scikit-learn10,scikit-learn-contrib,Python scikit-learn gridsearchCV,Scikit Learn,Scikit-learn package,scikit-learn library,scikit-learn22,scikit-multilearn,Scikit-Iearn,Scikits-Learn,scikit-learn library for Python,Scikit-learn29,Sci-kit-learn,Scilit-learn,scikit-learn (Pedregosa,ScikitLearn,scikits-learn,Scikit-Learn Package,scikit-learn33,scikit-Iearn,scikit-learn python,Sckit-learn,Scikit-Learn library,scitkit-learn,Scikit-learn toolbox,Python package scikit-learn,Scikit-learns,Scikit-Learn PCA,scikit-learn python package,Scikit-learn:,scikit-learn48,scikit-learn (sklearn),scikit-learn: machine learning in Python,scikit learn,SciKit-learn,Scitkit-learn,Scikit-Learn package,Scikitlearn,Scikit-learning,Scikit-Learn.PCA,sckit-learn</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -30510,6 +33090,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>igaad,SETSM,template-activating factor i,set,taf-i,phapii,i-2pp2a,sets,SET,hla-dr-associated protein ii,inhibitor of granzyme a-activated dnase,esets,protein set,Set,phosphatase 2a inhibitor i2pp2a</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -30562,6 +33147,11 @@
         </is>
       </c>
       <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>R package 'sfsmisc',Package sfsmisc,sfsmisc R-package,R/sfsmisc,R package sfsmisc,R package “sfsmisc,sfsmisc R,sfsmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -30618,6 +33208,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>R package 'sfsmisc',Package sfsmisc,sfsmisc R-package,R/sfsmisc,R package sfsmisc,R package “sfsmisc,sfsmisc R,sfsmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -30674,6 +33269,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>R package 'sfsmisc',Package sfsmisc,sfsmisc R-package,R/sfsmisc,R package sfsmisc,R package “sfsmisc,sfsmisc R,sfsmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -30726,6 +33326,11 @@
         </is>
       </c>
       <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>R package 'sfsmisc',Package sfsmisc,sfsmisc R-package,R/sfsmisc,R package sfsmisc,R package “sfsmisc,sfsmisc R,sfsmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -30782,6 +33387,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>R package 'sfsmisc',Package sfsmisc,sfsmisc R-package,R/sfsmisc,R package sfsmisc,R package “sfsmisc,sfsmisc R,sfsmisc package</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -30834,6 +33444,11 @@
         </is>
       </c>
       <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -30890,6 +33505,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -30942,6 +33562,11 @@
         </is>
       </c>
       <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -30998,6 +33623,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -31054,6 +33684,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -31110,6 +33745,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -31166,6 +33806,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -31218,6 +33863,11 @@
         </is>
       </c>
       <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -31274,6 +33924,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -31330,6 +33985,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>shinysky,shiny18,ShinyGEO,shinyBN,RShiny,ShinyApps,shinyGEO,shinystan,ShinySOM,shinyGPA,ShinyR,Shiny GAM,Shiny/R,ShinyGO,shiny.io,Shiny.r,Shiny R,Shiny Web,ShinyNANO,shinylogs,Shiny-app,glistening,Shiny-Seq,Shiny-R,ShinyGo,Shiny app,R-package shiny,Shiny-seq,shinyMA,ShinyGPA,shinyBS,Shiny27,glossy,ShinyNGS,ShinyAIM,ShinyGOv0,Shiny GUI,Shinyjs,Rshiny,shinyjs,shinyLi R,shinymeta,shinyngs,Shiny App,ShinyGPAS,shinyAce,shinyHTM,SHIN,shinyAE,SHINNY,ShinyStan,shiny,ShinyBN,shinyDAG,ShinyLi,ShinyGeo,Shinystan,SHINY R,ShinnyGO,ShinyJS,Shiny3,shinyFuse,ShinyApp,Shinymeta,shinyTree,SHINY app,ShinyIO,ShinyGO®,Shiny-GO,R-package ‘shiny’,shinyLi,shinyApp,shiny R,ShinyRGL,rshiny</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -31386,6 +34046,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -31438,6 +34103,11 @@
         </is>
       </c>
       <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -31490,6 +34160,11 @@
         </is>
       </c>
       <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -31542,6 +34217,11 @@
         </is>
       </c>
       <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -31598,6 +34278,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -31654,6 +34339,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>sklearn Python,sklearn.hmm,sklearn python package,Python sklearn library,Python sklearn package,sklearn-fuse,sklearn0,sklearn”,Python package sklearn,sklearn Python library,sklearn.tree,sklearn Python package,sklearn.utils,Python sklearn,sklearn.svm,Scikit-learn,scikits.learn,sklearn_extra,sklearn‐rvm,Sklearn API,sklear,sklearning,sklearn</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -31710,6 +34400,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>sklearn Python library,sklearn.utils Python,sklearn Python,sklearn Python package,Sklearn Python,Sklearn of Python</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -31766,6 +34461,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -31822,6 +34522,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -31878,6 +34583,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -31934,6 +34644,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -31990,6 +34705,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -32046,6 +34766,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>Nilearn Python package,hmmlearn Python package,sklearn Python,learn Python package37,sklearn Python package,sklearn python package,sklearn package</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -32098,6 +34823,11 @@
         </is>
       </c>
       <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>MNet,MNET,PSMNet</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -32150,6 +34880,11 @@
         </is>
       </c>
       <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>MNet,MNET,PSMNet</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -32206,6 +34941,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>snpReady R package,snpReady package,R package snpReady,r package snpReady,snpReady,SnpReady,R package “snpReady,SnpReady R,snpReady R</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -32262,6 +35002,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>snpReady R package,snpReady package,R package snpReady,r package snpReady,snpReady,SnpReady,R package “snpReady,SnpReady R,snpReady R</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -32314,6 +35059,11 @@
         </is>
       </c>
       <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>snpReady R package,snpReady package,R package snpReady,r package snpReady,snpReady,SnpReady,R package “snpReady,SnpReady R,snpReady R</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -32366,6 +35116,11 @@
         </is>
       </c>
       <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>snpReady R package,snpReady package,R package snpReady,r package snpReady,snpReady,SnpReady,R package “snpReady,SnpReady R,snpReady R</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -32422,6 +35177,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>snpReady R package,snpReady package,R package snpReady,r package snpReady,snpReady,SnpReady,R package “snpReady,SnpReady R,snpReady R</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -32478,6 +35238,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>spBayesSurv,spBayessurv,R package spBayesSurv,spBayes</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -32530,6 +35295,11 @@
         </is>
       </c>
       <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -32586,6 +35356,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>Spektraris,spektr,Spektral,Spektr,spektral</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -32642,6 +35417,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>Spektraris,spektr,Spektral,Spektr,spektral</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -32694,6 +35474,11 @@
         </is>
       </c>
       <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>SSTN,sst2,SSTP,SSTC,SSTR,SSTA,sstl,SSTW,SSTY,sstr,SSTT,SSTO,SSTp,SST+,SST9,SST3,SSTD,SSTF,SSTM,SSTS</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -32746,6 +35531,11 @@
         </is>
       </c>
       <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>SSTN,sst2,SSTP,SSTC,SSTR,SSTA,sstl,SSTW,SSTY,sstr,SSTT,SSTO,SSTp,SST+,SST9,SST3,SSTD,SSTF,SSTM,SSTS</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -32798,6 +35588,11 @@
         </is>
       </c>
       <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -32850,6 +35645,11 @@
         </is>
       </c>
       <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -32902,6 +35702,11 @@
         </is>
       </c>
       <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -32954,6 +35759,11 @@
         </is>
       </c>
       <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -33010,6 +35820,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -33062,6 +35877,11 @@
         </is>
       </c>
       <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>STAR13,STaRS,STARK,StA,STARe,STARs,STTAR,pStAR,STARFM,JSTAR,STaRT,STAR39,Stargz,ESTAR,STARx,star,star/2,STARTT,Spliced Transcripts Alignment to a Reference (STAR),qStar,stare,Ustar,STAR12,STARCH,start domain-containing protein 1,Wstar,stars,Star-P,Start,Star2,QStar,starka,StarI,StaRI,STAR3D,star-e,ustar,STARD1,STAR28,start,STAR-R,STAR19,STAR21,STAR3,StARS,istar,dStAR,PSTAR,Kstar,StaRi,eStar,Stare,GSTAR,STAR),Starr,aSTAR,STARMA,STAAR,STAR-Q,astar,StarE,STARv,CSTAR,STARE,starve,STAR:,STAR/2,StarT,jStar,STAR23,R package STAR,STARP,STARA,StAR2,STARD,STARPA,steroidogenic acute regulatory protein,mitochondrial,STAR51,STAR22,STAR67,STAR-G,rna-star,STARR,luteinizing hormone-induced protein,STAR*D,STAR4,STAR package,STARRT,stard1,STA,STARTS,STAR5,Starr”,StarFL,eStAR,STaRi,STAR58,Starc,STaRI,STARRS,KStar,Star2D,STARch,StARRT,STAR‐2,Stara,STAR-P,StARTs,StarPU,Stars,STAR e,STAR RNA-seq aligner package,STAR37,STARma,Stark,ultrafast universal RNA-seq aligner,STARNA,ASTAR,STAR-E,(STAR,STAR2D,Sstar,START2,STAR-2,StarAI,STARU,STAR_2,STARC,Qstar,starpu,start2,Star®,STARM,START,STAR©,STAR26,STARTs,StARS®,Sta,STARS,STAR75,STAR +,STAR®,Starst,eSTAR,STAR-F,STAR-J,StART,CStaR,STAR-D,DNA STAR package,STARHS,STAR66,sta,STAR74,STAR-T,KSTAR,STAR57,Spliced Transcripts Alignment to Reference,STARQL,STARKS,Star/2,StARR,StarS,QSTAR,StAR2D,iStar,MSTAR,STAR2,STAR-C,STARv2,STARZ,STAR*,Starm,USTAR,SSTAR,STAREE,Star e,StARTS</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -33118,6 +35938,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>StarScan,TARS,STARRS,starsolo,StarSEQ,StarStim,STARsolo,StarSeach,Starstim®,Stars4All,Stars4ALL,Starst,STARSolo,(STARS,StarStuff,STARS4ALL,Starstim,STARscan,StarSeq,STARSurg,StarStim®,STARshort,StarSolo,star,STARSEQ,STARRseq,STARSTIM,StarSpace,steroidogenic acute regulatory protein,mitochondrial,StAR,StarStim8,start domain-containing protein 1,Starseq,STaR,stars,STARSIM,Star,Starship,luteinizing hormone-induced protein,STARSIL®,stard1,Starseq®,Starsoft,StarSpire,StARS®,STAR,STARSHIP</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -33174,6 +35999,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>StarScan,TARS,STARRS,starsolo,StarSEQ,StarStim,STARsolo,StarSeach,Starstim®,Stars4All,Stars4ALL,Starst,STARSolo,(STARS,StarStuff,STARS4ALL,Starstim,STARscan,StarSeq,STARSurg,StarStim®,STARshort,StarSolo,star,STARSEQ,STARRseq,STARSTIM,StarSpace,steroidogenic acute regulatory protein,mitochondrial,StAR,StarStim8,start domain-containing protein 1,Starseq,STaR,stars,STARSIM,Star,Starship,luteinizing hormone-induced protein,STARSIL®,stard1,Starseq®,Starsoft,StarSpire,StARS®,STAR,STARSHIP</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -33230,6 +36060,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>StarScan,TARS,STARRS,starsolo,StarSEQ,StarStim,STARsolo,StarSeach,Starstim®,Stars4All,Stars4ALL,Starst,STARSolo,(STARS,StarStuff,STARS4ALL,Starstim,STARscan,StarSeq,STARSurg,StarStim®,STARshort,StarSolo,star,STARSEQ,STARRseq,STARSTIM,StarSpace,steroidogenic acute regulatory protein,mitochondrial,StAR,StarStim8,start domain-containing protein 1,Starseq,STaR,stars,STARSIM,Star,Starship,luteinizing hormone-induced protein,STARSIL®,stard1,Starseq®,Starsoft,StarSpire,StARS®,STAR,STARSHIP</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -33286,6 +36121,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>StarScan,TARS,STARRS,starsolo,StarSEQ,StarStim,STARsolo,StarSeach,Starstim®,Stars4All,Stars4ALL,Starst,STARSolo,(STARS,StarStuff,STARS4ALL,Starstim,STARscan,StarSeq,STARSurg,StarStim®,STARshort,StarSolo,star,STARSEQ,STARRseq,STARSTIM,StarSpace,steroidogenic acute regulatory protein,mitochondrial,StAR,StarStim8,start domain-containing protein 1,Starseq,STaR,stars,STARSIM,Star,Starship,luteinizing hormone-induced protein,STARSIL®,stard1,Starseq®,Starsoft,StarSpire,StARS®,STAR,STARSHIP</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -33338,6 +36178,11 @@
         </is>
       </c>
       <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>StarScan,TARS,STARRS,starsolo,StarSEQ,StarStim,STARsolo,StarSeach,Starstim®,Stars4All,Stars4ALL,Starst,STARSolo,(STARS,StarStuff,STARS4ALL,Starstim,STARscan,StarSeq,STARSurg,StarStim®,STARshort,StarSolo,star,STARSEQ,STARRseq,STARSTIM,StarSpace,steroidogenic acute regulatory protein,mitochondrial,StAR,StarStim8,start domain-containing protein 1,Starseq,STaR,stars,STARSIM,Star,Starship,luteinizing hormone-induced protein,STARSIL®,stard1,Starseq®,Starsoft,StarSpire,StARS®,STAR,STARSHIP</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -33394,6 +36239,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>R-package stdReg</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -33446,6 +36296,11 @@
         </is>
       </c>
       <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>R-package stdReg</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -33502,6 +36357,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>R-package stdReg</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -33558,6 +36418,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>R-package stdReg</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -33614,6 +36479,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>R-package stdReg</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -33670,6 +36540,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>Strandomics,STRANG,Strand –NGS,STRAND-Seq,Strandseq,STRAND NGS,StrandOmics,StrandNet,Strand-Seq,STRAND7,H-Strand,STRANDS,strand NGS,Strand-seq,STRAND®,Strand LS,Strands,Stra,Strans,strandBias,Strand NGS,Strand-NGS,Stranded,Strand NGS®,StrandNGS,Strand-Rx,STRAND® NGS,Strand7,strandCet,StrandOMS,STRA,STRand46,Strand7®,Strand7 FEA,strandCet R</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -33722,6 +36597,11 @@
         </is>
       </c>
       <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -33778,6 +36658,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -33830,6 +36715,11 @@
         </is>
       </c>
       <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -33886,6 +36776,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -33938,6 +36833,11 @@
         </is>
       </c>
       <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -33990,6 +36890,11 @@
         </is>
       </c>
       <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -34042,6 +36947,11 @@
         </is>
       </c>
       <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -34098,6 +37008,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -34154,6 +37069,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -34210,6 +37130,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>stringer,R package stringr,String-d,stringR,Stringdb,String©,stringi,String,StringDb,stringdb,String”,StringGO,stringr R package,Stringi,String*,Strin,stringr,stringDB,string,Strings,stringr19,string11,StringDB,String10</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -34266,6 +37191,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>Summary Tools,summarytools,summary,Summary,Summarytools</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -34322,6 +37252,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>Summary Tools,summarytools,summary,Summary,Summarytools</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -34378,6 +37313,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>Summary Tools,summarytools,summary,Summary,Summarytools</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -34434,6 +37374,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>Summary Tools,summarytools,summary,Summary,Summarytools</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -34490,6 +37435,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>Summary Tools,summarytools,summary,Summary,Summarytools</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -34546,6 +37496,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -34598,6 +37549,7 @@
         </is>
       </c>
       <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -34650,6 +37602,7 @@
         </is>
       </c>
       <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -34706,6 +37659,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>SWIR,swirlify</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -34762,6 +37720,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>swirl</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -34814,6 +37777,11 @@
         </is>
       </c>
       <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>xtandem,X1Tandem,X-Tandem,! Tandem,Tand,TandemTools,TandemUTR,TAnDem.Plus,TanDEM IDEM,TandemDupli,Xtandem!,!TANDEM,TandemQUAST,Tandem-R,rTANDEM,ETANDEM,ANDEM,Tandem-L,Tandem-X,TandemSmart,TANDEM51,x!Tandem,XTandem!,TANDEM-IRI,inTandem,Tandem2,E-tandem,X!Tandem,Tandem2XML,Tandem-HTRF,x!tandem,TandemSWAN,TanDEM-L,etandem,X!TANDEM,XTandem,X!tandem,eTandem,MCtandem,Tandem!,TAND,XTANDEM,TanDEM-X,XITandem,TandemQuery,Etandem,tandemMOAC,TandemHeart,Tandem Play,Tandemgenes,tandemquast,Xtandem,rtandem</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -34866,6 +37834,11 @@
         </is>
       </c>
       <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>xtandem,X1Tandem,X-Tandem,! Tandem,Tand,TandemTools,TandemUTR,TAnDem.Plus,TanDEM IDEM,TandemDupli,Xtandem!,!TANDEM,TandemQUAST,Tandem-R,rTANDEM,ETANDEM,ANDEM,Tandem-L,Tandem-X,TandemSmart,TANDEM51,x!Tandem,XTandem!,TANDEM-IRI,inTandem,Tandem2,E-tandem,X!Tandem,Tandem2XML,Tandem-HTRF,x!tandem,TandemSWAN,TanDEM-L,etandem,X!TANDEM,XTandem,X!tandem,eTandem,MCtandem,Tandem!,TAND,XTANDEM,TanDEM-X,XITandem,TandemQuery,Etandem,tandemMOAC,TandemHeart,Tandem Play,Tandemgenes,tandemquast,Xtandem,rtandem</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -34918,6 +37891,11 @@
         </is>
       </c>
       <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>xtandem,X1Tandem,X-Tandem,! Tandem,Tand,TandemTools,TandemUTR,TAnDem.Plus,TanDEM IDEM,TandemDupli,Xtandem!,!TANDEM,TandemQUAST,Tandem-R,rTANDEM,ETANDEM,ANDEM,Tandem-L,Tandem-X,TandemSmart,TANDEM51,x!Tandem,XTandem!,TANDEM-IRI,inTandem,Tandem2,E-tandem,X!Tandem,Tandem2XML,Tandem-HTRF,x!tandem,TandemSWAN,TanDEM-L,etandem,X!TANDEM,XTandem,X!tandem,eTandem,MCtandem,Tandem!,TAND,XTANDEM,TanDEM-X,XITandem,TandemQuery,Etandem,tandemMOAC,TandemHeart,Tandem Play,Tandemgenes,tandemquast,Xtandem,rtandem</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -34970,6 +37948,11 @@
         </is>
       </c>
       <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -35022,6 +38005,11 @@
         </is>
       </c>
       <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -35074,6 +38062,11 @@
         </is>
       </c>
       <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -35126,6 +38119,11 @@
         </is>
       </c>
       <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -35182,6 +38180,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -35238,6 +38241,11 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -35290,6 +38298,11 @@
         </is>
       </c>
       <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -35342,6 +38355,11 @@
         </is>
       </c>
       <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -35398,6 +38416,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -35450,6 +38473,11 @@
         </is>
       </c>
       <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>TENSOR,Tensorflow-r0,Tensorflow®,TensorFlow13,Tensorflow-0,Tensorflow ADADELTA,Tensorflow lite,TensorFlow Serving,Tensorflow_GPU,Tensorflow,tensorflow GPU,TensorflowLite,Tensorflow Python,TensorFlow Keras,TensorFlow1,Tensorflow API,tensorflow library,Tensorflow ( Abadi,TensorFlow SDK,TensorFlow JS,TensorFlow GPU,Tensorflow50,TensorFlow train,TensorFloat,TensorFlow lite,TensorFlow25,Tensorflow-Hub,TensorflowHub,Tensorflow Keras,Tensorflow GPU,Tensorflow Library,TensorFlow_gpu1,TensorFlow-Keras,TensorFlow.js,TensorflowJS,TesnsorFlow,TensorFlow Python,Tensorflow-gpu,Tensor-Flow,TensorFlow DeepSurv,TensorFlow API,TensorFlow keras,TensorFlow Mobile,TensorFlow-lite,TensorFlow DL,Tensor Flow,TensorFlow-package,Tensorflow2/Keras,tensorflowTM,TensorFlow Core,Tensorflow-Keras,tensor flow,Tensorflow2,TensorFlow (TF),TensorFlow/Python,TensorFlow Fold,Ten-sorFlow,Tensorflow-gpu1,Ten-sorflow,Tensorflow/Keras,tensorflow Python,TensorFlow library,Tensorflow Visor,Tensorflow1,TensorFlow-Slim,Tensorfow,TensorFLow,TensoFlow,Tensor-flow,RSTensorFlow,TensorFlow38,tensowflow,TensorFlow toolbox,Tensor,tensorflow-gpu-2,Tensor flow,TensorFlow/Theano,TensorFlow,Tensorflow-GPU,TensorFlow2,tensorflow (keras),TensorFlowLite,Tensorflow Graphics,TensorFlow-GTP,Tensorflow-Lite,TensorFlowPrivacy,TensorFlow Lite for,TensforFlow,TensorFlow Hub,TensorFlow Light,tensorflow,TensorFlow15,TensorFlow Eager,TensorFlow-GPU,Tensorflows,Tensorflow library,Tensorflow Lite,Tensorflow-addons,TensorFlow‐Gpu,TensorFlowSharp,Tensorflow Demo,Tensorflow Deeplab,tensorflow1,TensorFlow-gpu,tensorflow API,Tensorflow.js,tensorflow-gpu,Tensorflow Serving,TensorFlow Lite,Tensorflow Hub,Tensorflow-hub,rTensorflow,Tensorflow Mobile,TensorFlowTM,tensorflowsharp,tensorflow 2,tensorFlow,TensorFlow11,TensorFlow package,tensorflowlight,tensorflow2,TensorFlow NN,TensorFlow/Keras</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -35502,6 +38530,11 @@
         </is>
       </c>
       <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -35558,6 +38591,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -35610,6 +38648,11 @@
         </is>
       </c>
       <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -35666,6 +38709,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -35722,6 +38770,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -35778,6 +38831,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -35830,6 +38888,11 @@
         </is>
       </c>
       <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -35882,6 +38945,11 @@
         </is>
       </c>
       <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -35938,6 +39006,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -35994,6 +39067,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>tidyr R package,package tidyr,R packages tidyr,Tidy,tidyr43,tidyr”,tidyr41,tidyr,tidy</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -36050,6 +39128,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>tidy-verse,R/tidyverse,tidyverse package bundle,tidyverse”,Tidyverse,R tidyverse package,R package ‘tidyverse’,R Tidyverse,tidyverse package,tidy verse,R package tidyverse,tidyverse R,package tidyverse,R packages tidyverse,tidyverselibrary,tidyverse bundle,tidyverse R package,tidyverse library,R library tidyverse,Tidyverse R,R tidyverse,R package “tidyverse”,R ‘tidyverse’ package,tidyverse36,R package ‘tidyverse,tidyverse,R package “tidyverse,R ‘ tidyverse’,R ‘tidyverse,Tidyverse package,tidyverse-1,Tidyverse image</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -36106,6 +39189,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>tidy-verse,R/tidyverse,tidyverse package bundle,tidyverse”,Tidyverse,R tidyverse package,R package ‘tidyverse’,R Tidyverse,tidyverse package,tidy verse,R package tidyverse,tidyverse R,package tidyverse,R packages tidyverse,tidyverselibrary,tidyverse bundle,tidyverse R package,tidyverse library,R library tidyverse,Tidyverse R,R tidyverse,R package “tidyverse”,R ‘tidyverse’ package,tidyverse36,R package ‘tidyverse,tidyverse,R package “tidyverse,R ‘ tidyverse’,R ‘tidyverse,Tidyverse package,tidyverse-1,Tidyverse image</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -36162,6 +39250,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>tidy-verse,R/tidyverse,tidyverse package bundle,tidyverse”,Tidyverse,R tidyverse package,R package ‘tidyverse’,R Tidyverse,tidyverse package,tidy verse,R package tidyverse,tidyverse R,package tidyverse,R packages tidyverse,tidyverselibrary,tidyverse bundle,tidyverse R package,tidyverse library,R library tidyverse,Tidyverse R,R tidyverse,R package “tidyverse”,R ‘tidyverse’ package,tidyverse36,R package ‘tidyverse,tidyverse,R package “tidyverse,R ‘ tidyverse’,R ‘tidyverse,Tidyverse package,tidyverse-1,Tidyverse image</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -36218,6 +39311,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>tidy-verse,R/tidyverse,tidyverse package bundle,tidyverse”,Tidyverse,R tidyverse package,R package ‘tidyverse’,R Tidyverse,tidyverse package,tidy verse,R package tidyverse,tidyverse R,package tidyverse,R packages tidyverse,tidyverselibrary,tidyverse bundle,tidyverse R package,tidyverse library,R library tidyverse,Tidyverse R,R tidyverse,R package “tidyverse”,R ‘tidyverse’ package,tidyverse36,R package ‘tidyverse,tidyverse,R package “tidyverse,R ‘ tidyverse’,R ‘tidyverse,Tidyverse package,tidyverse-1,Tidyverse image</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -36274,6 +39372,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>tidy-verse,R/tidyverse,tidyverse package bundle,tidyverse”,Tidyverse,R tidyverse package,R package ‘tidyverse’,R Tidyverse,tidyverse package,tidy verse,R package tidyverse,tidyverse R,package tidyverse,R packages tidyverse,tidyverselibrary,tidyverse bundle,tidyverse R package,tidyverse library,R library tidyverse,Tidyverse R,R tidyverse,R package “tidyverse”,R ‘tidyverse’ package,tidyverse36,R package ‘tidyverse,tidyverse,R package “tidyverse,R ‘ tidyverse’,R ‘tidyverse,Tidyverse package,tidyverse-1,Tidyverse image</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -36326,6 +39429,7 @@
         </is>
       </c>
       <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -36378,6 +39482,11 @@
         </is>
       </c>
       <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>Treehouse OCTAD,Treehouse,Treehouse Maps,treehouse,Treehouse CARE</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -36430,6 +39539,11 @@
         </is>
       </c>
       <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>Treehouse OCTAD,Treehouse,Treehouse Maps,treehouse,Treehouse CARE</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -36482,6 +39596,11 @@
         </is>
       </c>
       <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>Treehouse OCTAD,Treehouse,Treehouse Maps,treehouse,Treehouse CARE</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -36534,6 +39653,11 @@
         </is>
       </c>
       <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>Treehouse OCTAD,Treehouse,Treehouse Maps,treehouse,Treehouse CARE</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -36586,6 +39710,11 @@
         </is>
       </c>
       <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>Trip,TripalDock,TripalField,trip,TripalMap</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -36638,6 +39767,11 @@
         </is>
       </c>
       <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>Trip,TripalDock,TripalField,trip,TripalMap</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -36694,6 +39828,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -36746,6 +39881,7 @@
         </is>
       </c>
       <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -36802,6 +39938,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -36854,6 +39991,7 @@
         </is>
       </c>
       <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -36910,6 +40048,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -36966,6 +40105,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -37022,6 +40162,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>DVenn,PVENN,3Venn,RVenn,Venny,VEN,jvenn,EVenn,VENNY2,Ven,Venny2,Venncy,nVenn,VENNY,Jvenn,JVenn,venn3,venn R,Vennt,Venn2,Venni,pvenn,JVENN,VENNy,jVenn,eVenn,venny2,Vennix,venny</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -37078,6 +40223,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>DVenn,PVENN,3Venn,RVenn,Venny,VEN,jvenn,EVenn,VENNY2,Ven,Venny2,Venncy,nVenn,VENNY,Jvenn,JVenn,venn3,venn R,Vennt,Venn2,Venni,pvenn,JVENN,VENNy,jVenn,eVenn,venny2,Vennix,venny</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -37134,6 +40284,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>DVenn,PVENN,3Venn,RVenn,Venny,VEN,jvenn,EVenn,VENNY2,Ven,Venny2,Venncy,nVenn,VENNY,Jvenn,JVenn,venn3,venn R,Vennt,Venn2,Venni,pvenn,JVENN,VENNy,jVenn,eVenn,venny2,Vennix,venny</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -37186,6 +40341,11 @@
         </is>
       </c>
       <c r="L680" t="inlineStr"/>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>DVenn,PVENN,3Venn,RVenn,Venny,VEN,jvenn,EVenn,VENNY2,Ven,Venny2,Venncy,nVenn,VENNY,Jvenn,JVenn,venn3,venn R,Vennt,Venn2,Venni,pvenn,JVENN,VENNy,jVenn,eVenn,venny2,Vennix,venny</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -37242,6 +40402,11 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>DVenn,PVENN,3Venn,RVenn,Venny,VEN,jvenn,EVenn,VENNY2,Ven,Venny2,Venncy,nVenn,VENNY,Jvenn,JVenn,venn3,venn R,Vennt,Venn2,Venni,pvenn,JVENN,VENNy,jVenn,eVenn,venny2,Vennix,venny</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -37298,6 +40463,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -37354,6 +40520,7 @@
           <t>R</t>
         </is>
       </c>
+      <c r="M683" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
